--- a/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>220000</v>
+        <v>218500</v>
       </c>
       <c r="E8" s="3">
-        <v>317700</v>
+        <v>315600</v>
       </c>
       <c r="F8" s="3">
-        <v>352300</v>
+        <v>349900</v>
       </c>
       <c r="G8" s="3">
-        <v>376300</v>
+        <v>373800</v>
       </c>
       <c r="H8" s="3">
-        <v>342500</v>
+        <v>340100</v>
       </c>
       <c r="I8" s="3">
-        <v>303500</v>
+        <v>301400</v>
       </c>
       <c r="J8" s="3">
-        <v>240300</v>
+        <v>238600</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>151600</v>
+        <v>150600</v>
       </c>
       <c r="E9" s="3">
-        <v>206900</v>
+        <v>205500</v>
       </c>
       <c r="F9" s="3">
-        <v>480400</v>
+        <v>477100</v>
       </c>
       <c r="G9" s="3">
-        <v>219200</v>
+        <v>217700</v>
       </c>
       <c r="H9" s="3">
-        <v>193400</v>
+        <v>192000</v>
       </c>
       <c r="I9" s="3">
-        <v>173400</v>
+        <v>172200</v>
       </c>
       <c r="J9" s="3">
-        <v>140200</v>
+        <v>139200</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>68300</v>
+        <v>67900</v>
       </c>
       <c r="E10" s="3">
-        <v>110800</v>
+        <v>110100</v>
       </c>
       <c r="F10" s="3">
-        <v>-128100</v>
+        <v>-127200</v>
       </c>
       <c r="G10" s="3">
-        <v>157200</v>
+        <v>156100</v>
       </c>
       <c r="H10" s="3">
-        <v>149100</v>
+        <v>148100</v>
       </c>
       <c r="I10" s="3">
-        <v>130100</v>
+        <v>129200</v>
       </c>
       <c r="J10" s="3">
-        <v>100100</v>
+        <v>99400</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="E12" s="3">
         <v>10000</v>
       </c>
       <c r="F12" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -859,13 +859,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-16300</v>
+        <v>-16200</v>
       </c>
       <c r="E14" s="3">
         <v>5800</v>
       </c>
       <c r="F14" s="3">
-        <v>46200</v>
+        <v>45900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>230900</v>
+        <v>229400</v>
       </c>
       <c r="E17" s="3">
-        <v>320900</v>
+        <v>318700</v>
       </c>
       <c r="F17" s="3">
-        <v>345000</v>
+        <v>342600</v>
       </c>
       <c r="G17" s="3">
-        <v>383800</v>
+        <v>381200</v>
       </c>
       <c r="H17" s="3">
-        <v>326200</v>
+        <v>324000</v>
       </c>
       <c r="I17" s="3">
-        <v>282700</v>
+        <v>280700</v>
       </c>
       <c r="J17" s="3">
-        <v>230900</v>
+        <v>229300</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,7 +950,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="E18" s="3">
         <v>-3100</v>
@@ -962,13 +962,13 @@
         <v>-7400</v>
       </c>
       <c r="H18" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="I18" s="3">
-        <v>20800</v>
+        <v>20700</v>
       </c>
       <c r="J18" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -996,7 +996,7 @@
         <v>-1000</v>
       </c>
       <c r="F20" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="G20" s="3">
         <v>700</v>
@@ -1017,19 +1017,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E21" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="F21" s="3">
-        <v>29300</v>
+        <v>29400</v>
       </c>
       <c r="G21" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="H21" s="3">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="I21" s="3">
         <v>39200</v>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11800</v>
+        <v>-11700</v>
       </c>
       <c r="E23" s="3">
         <v>-4300</v>
       </c>
       <c r="F23" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="G23" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="H23" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="I23" s="3">
-        <v>23300</v>
+        <v>23200</v>
       </c>
       <c r="J23" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1152,7 +1152,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-14500</v>
+        <v>-14400</v>
       </c>
       <c r="E26" s="3">
         <v>-5600</v>
@@ -1161,13 +1161,13 @@
         <v>7100</v>
       </c>
       <c r="G26" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="H26" s="3">
         <v>9300</v>
       </c>
       <c r="I26" s="3">
-        <v>22900</v>
+        <v>22800</v>
       </c>
       <c r="J26" s="3">
         <v>7600</v>
@@ -1179,7 +1179,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14500</v>
+        <v>-14400</v>
       </c>
       <c r="E27" s="3">
         <v>-5600</v>
@@ -1188,13 +1188,13 @@
         <v>7100</v>
       </c>
       <c r="G27" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="H27" s="3">
         <v>9300</v>
       </c>
       <c r="I27" s="3">
-        <v>22900</v>
+        <v>22800</v>
       </c>
       <c r="J27" s="3">
         <v>7600</v>
@@ -1320,7 +1320,7 @@
         <v>1000</v>
       </c>
       <c r="F32" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="G32" s="3">
         <v>-700</v>
@@ -1341,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14500</v>
+        <v>-14400</v>
       </c>
       <c r="E33" s="3">
         <v>-5600</v>
@@ -1350,13 +1350,13 @@
         <v>7100</v>
       </c>
       <c r="G33" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="H33" s="3">
         <v>9300</v>
       </c>
       <c r="I33" s="3">
-        <v>22900</v>
+        <v>22800</v>
       </c>
       <c r="J33" s="3">
         <v>7600</v>
@@ -1395,7 +1395,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14500</v>
+        <v>-14400</v>
       </c>
       <c r="E35" s="3">
         <v>-5600</v>
@@ -1404,13 +1404,13 @@
         <v>7100</v>
       </c>
       <c r="G35" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="H35" s="3">
         <v>9300</v>
       </c>
       <c r="I35" s="3">
-        <v>22900</v>
+        <v>22800</v>
       </c>
       <c r="J35" s="3">
         <v>7600</v>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>58800</v>
+        <v>58400</v>
       </c>
       <c r="E41" s="3">
-        <v>60500</v>
+        <v>60100</v>
       </c>
       <c r="F41" s="3">
-        <v>162000</v>
+        <v>160900</v>
       </c>
       <c r="G41" s="3">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="H41" s="3">
-        <v>27400</v>
+        <v>27200</v>
       </c>
       <c r="I41" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="J41" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1516,16 +1516,16 @@
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>60600</v>
+        <v>60200</v>
       </c>
       <c r="H42" s="3">
-        <v>92600</v>
+        <v>91900</v>
       </c>
       <c r="I42" s="3">
-        <v>101900</v>
+        <v>101200</v>
       </c>
       <c r="J42" s="3">
-        <v>33100</v>
+        <v>32900</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="E43" s="3">
-        <v>32000</v>
+        <v>31800</v>
       </c>
       <c r="F43" s="3">
-        <v>133200</v>
+        <v>132300</v>
       </c>
       <c r="G43" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="H43" s="3">
-        <v>41100</v>
+        <v>40900</v>
       </c>
       <c r="I43" s="3">
-        <v>30200</v>
+        <v>30000</v>
       </c>
       <c r="J43" s="3">
-        <v>36500</v>
+        <v>36200</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20500</v>
+        <v>20400</v>
       </c>
       <c r="E44" s="3">
-        <v>22500</v>
+        <v>22400</v>
       </c>
       <c r="F44" s="3">
-        <v>56600</v>
+        <v>56200</v>
       </c>
       <c r="G44" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="H44" s="3">
+        <v>27300</v>
+      </c>
+      <c r="I44" s="3">
         <v>27500</v>
       </c>
-      <c r="I44" s="3">
-        <v>27700</v>
-      </c>
       <c r="J44" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1597,7 +1597,7 @@
         <v>2800</v>
       </c>
       <c r="G45" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H45" s="3">
         <v>2600</v>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>108800</v>
+        <v>108100</v>
       </c>
       <c r="E46" s="3">
-        <v>119300</v>
+        <v>118500</v>
       </c>
       <c r="F46" s="3">
-        <v>151500</v>
+        <v>150500</v>
       </c>
       <c r="G46" s="3">
-        <v>167500</v>
+        <v>166400</v>
       </c>
       <c r="H46" s="3">
-        <v>191200</v>
+        <v>189900</v>
       </c>
       <c r="I46" s="3">
-        <v>177300</v>
+        <v>176100</v>
       </c>
       <c r="J46" s="3">
-        <v>109300</v>
+        <v>108500</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>107100</v>
+        <v>106300</v>
       </c>
       <c r="E48" s="3">
-        <v>79600</v>
+        <v>79000</v>
       </c>
       <c r="F48" s="3">
-        <v>111400</v>
+        <v>110600</v>
       </c>
       <c r="G48" s="3">
-        <v>78100</v>
+        <v>77500</v>
       </c>
       <c r="H48" s="3">
-        <v>71300</v>
+        <v>70800</v>
       </c>
       <c r="I48" s="3">
-        <v>61900</v>
+        <v>61400</v>
       </c>
       <c r="J48" s="3">
-        <v>45700</v>
+        <v>45400</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="E49" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="F49" s="3">
-        <v>36700</v>
+        <v>36400</v>
       </c>
       <c r="G49" s="3">
-        <v>34100</v>
+        <v>33800</v>
       </c>
       <c r="H49" s="3">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="I49" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="J49" s="3">
-        <v>17100</v>
+        <v>17000</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1780,13 +1780,13 @@
         <v>6400</v>
       </c>
       <c r="E52" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="F52" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="G52" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="H52" s="3">
         <v>8700</v>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>234900</v>
+        <v>233300</v>
       </c>
       <c r="E54" s="3">
-        <v>225200</v>
+        <v>223600</v>
       </c>
       <c r="F54" s="3">
-        <v>225600</v>
+        <v>224100</v>
       </c>
       <c r="G54" s="3">
-        <v>292000</v>
+        <v>290000</v>
       </c>
       <c r="H54" s="3">
-        <v>299300</v>
+        <v>297200</v>
       </c>
       <c r="I54" s="3">
-        <v>272200</v>
+        <v>270400</v>
       </c>
       <c r="J54" s="3">
-        <v>176300</v>
+        <v>175100</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1887,22 +1887,22 @@
         <v>8300</v>
       </c>
       <c r="E57" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="F57" s="3">
-        <v>58100</v>
+        <v>57700</v>
       </c>
       <c r="G57" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="H57" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="I57" s="3">
         <v>7100</v>
       </c>
       <c r="J57" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,7 +1911,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30700</v>
+        <v>30500</v>
       </c>
       <c r="E59" s="3">
-        <v>33100</v>
+        <v>32800</v>
       </c>
       <c r="F59" s="3">
-        <v>78600</v>
+        <v>78000</v>
       </c>
       <c r="G59" s="3">
-        <v>42700</v>
+        <v>42400</v>
       </c>
       <c r="H59" s="3">
-        <v>28500</v>
+        <v>28300</v>
       </c>
       <c r="I59" s="3">
-        <v>32200</v>
+        <v>32000</v>
       </c>
       <c r="J59" s="3">
-        <v>25300</v>
+        <v>25100</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>40200</v>
+        <v>39900</v>
       </c>
       <c r="E60" s="3">
-        <v>44200</v>
+        <v>43900</v>
       </c>
       <c r="F60" s="3">
-        <v>62000</v>
+        <v>61500</v>
       </c>
       <c r="G60" s="3">
-        <v>65600</v>
+        <v>65100</v>
       </c>
       <c r="H60" s="3">
-        <v>46800</v>
+        <v>46500</v>
       </c>
       <c r="I60" s="3">
-        <v>44100</v>
+        <v>43800</v>
       </c>
       <c r="J60" s="3">
-        <v>44600</v>
+        <v>44300</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -2001,13 +2001,13 @@
         <v>4000</v>
       </c>
       <c r="G61" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="H61" s="3">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="I61" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J61" s="3">
         <v>8100</v>
@@ -2019,10 +2019,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38700</v>
+        <v>38500</v>
       </c>
       <c r="E62" s="3">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>85400</v>
+        <v>84900</v>
       </c>
       <c r="E66" s="3">
-        <v>64900</v>
+        <v>64400</v>
       </c>
       <c r="F66" s="3">
-        <v>67200</v>
+        <v>66700</v>
       </c>
       <c r="G66" s="3">
-        <v>76200</v>
+        <v>75700</v>
       </c>
       <c r="H66" s="3">
-        <v>65900</v>
+        <v>65400</v>
       </c>
       <c r="I66" s="3">
-        <v>53100</v>
+        <v>52700</v>
       </c>
       <c r="J66" s="3">
-        <v>53400</v>
+        <v>53000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-73400</v>
+        <v>-72900</v>
       </c>
       <c r="E72" s="3">
-        <v>-59000</v>
+        <v>-58600</v>
       </c>
       <c r="F72" s="3">
-        <v>-53300</v>
+        <v>-53000</v>
       </c>
       <c r="G72" s="3">
-        <v>-58500</v>
+        <v>-58100</v>
       </c>
       <c r="H72" s="3">
-        <v>-41000</v>
+        <v>-40800</v>
       </c>
       <c r="I72" s="3">
-        <v>-50400</v>
+        <v>-50000</v>
       </c>
       <c r="J72" s="3">
-        <v>-72700</v>
+        <v>-72200</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>149500</v>
+        <v>148400</v>
       </c>
       <c r="E76" s="3">
-        <v>160300</v>
+        <v>159200</v>
       </c>
       <c r="F76" s="3">
-        <v>158400</v>
+        <v>157300</v>
       </c>
       <c r="G76" s="3">
-        <v>215700</v>
+        <v>214300</v>
       </c>
       <c r="H76" s="3">
-        <v>233400</v>
+        <v>231800</v>
       </c>
       <c r="I76" s="3">
-        <v>219100</v>
+        <v>217600</v>
       </c>
       <c r="J76" s="3">
-        <v>122900</v>
+        <v>122000</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,7 +2469,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14500</v>
+        <v>-14400</v>
       </c>
       <c r="E81" s="3">
         <v>-5600</v>
@@ -2478,13 +2478,13 @@
         <v>7100</v>
       </c>
       <c r="G81" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="H81" s="3">
         <v>9300</v>
       </c>
       <c r="I81" s="3">
-        <v>22900</v>
+        <v>22800</v>
       </c>
       <c r="J81" s="3">
         <v>7600</v>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="E83" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="F83" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="G83" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="H83" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="I83" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="J83" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="E89" s="3">
-        <v>17100</v>
+        <v>17000</v>
       </c>
       <c r="F89" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="G89" s="3">
-        <v>37300</v>
+        <v>37100</v>
       </c>
       <c r="H89" s="3">
-        <v>25900</v>
+        <v>25700</v>
       </c>
       <c r="I89" s="3">
-        <v>38900</v>
+        <v>38600</v>
       </c>
       <c r="J89" s="3">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21300</v>
+        <v>-21100</v>
       </c>
       <c r="E91" s="3">
-        <v>-16300</v>
+        <v>-16200</v>
       </c>
       <c r="F91" s="3">
-        <v>-11100</v>
+        <v>-11000</v>
       </c>
       <c r="G91" s="3">
-        <v>-23900</v>
+        <v>-23700</v>
       </c>
       <c r="H91" s="3">
-        <v>-24600</v>
+        <v>-24400</v>
       </c>
       <c r="I91" s="3">
-        <v>-23500</v>
+        <v>-23300</v>
       </c>
       <c r="J91" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24900</v>
+        <v>-24700</v>
       </c>
       <c r="E94" s="3">
-        <v>-19500</v>
+        <v>-19300</v>
       </c>
       <c r="F94" s="3">
-        <v>-17300</v>
+        <v>-17100</v>
       </c>
       <c r="G94" s="3">
-        <v>-37300</v>
+        <v>-37000</v>
       </c>
       <c r="H94" s="3">
-        <v>-35700</v>
+        <v>-35500</v>
       </c>
       <c r="I94" s="3">
-        <v>-33000</v>
+        <v>-32800</v>
       </c>
       <c r="J94" s="3">
-        <v>-19900</v>
+        <v>-19800</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2949,16 +2949,16 @@
         <v>-3900</v>
       </c>
       <c r="G100" s="3">
-        <v>-15900</v>
+        <v>-15700</v>
       </c>
       <c r="H100" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="I100" s="3">
-        <v>57200</v>
+        <v>56800</v>
       </c>
       <c r="J100" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2982,7 +2982,7 @@
         <v>-600</v>
       </c>
       <c r="I101" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -2997,19 +2997,19 @@
         <v>-1700</v>
       </c>
       <c r="E102" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="F102" s="3">
-        <v>-12900</v>
+        <v>-12800</v>
       </c>
       <c r="G102" s="3">
-        <v>-17800</v>
+        <v>-17700</v>
       </c>
       <c r="H102" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I102" s="3">
-        <v>66100</v>
+        <v>65700</v>
       </c>
       <c r="J102" s="3">
         <v>7000</v>

--- a/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>DRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>218500</v>
+        <v>188100</v>
       </c>
       <c r="E8" s="3">
-        <v>315600</v>
+        <v>218600</v>
       </c>
       <c r="F8" s="3">
-        <v>349900</v>
+        <v>315700</v>
       </c>
       <c r="G8" s="3">
-        <v>373800</v>
+        <v>350000</v>
       </c>
       <c r="H8" s="3">
-        <v>340100</v>
+        <v>373900</v>
       </c>
       <c r="I8" s="3">
-        <v>301400</v>
+        <v>340300</v>
       </c>
       <c r="J8" s="3">
+        <v>301500</v>
+      </c>
+      <c r="K8" s="3">
         <v>238600</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>150600</v>
+        <v>158200</v>
       </c>
       <c r="E9" s="3">
-        <v>205500</v>
+        <v>150700</v>
       </c>
       <c r="F9" s="3">
-        <v>477100</v>
+        <v>205600</v>
       </c>
       <c r="G9" s="3">
-        <v>217700</v>
+        <v>477300</v>
       </c>
       <c r="H9" s="3">
-        <v>192000</v>
+        <v>217800</v>
       </c>
       <c r="I9" s="3">
+        <v>192100</v>
+      </c>
+      <c r="J9" s="3">
         <v>172200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>139200</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E10" s="3">
         <v>67900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>110100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-127200</v>
       </c>
-      <c r="G10" s="3">
-        <v>156100</v>
-      </c>
       <c r="H10" s="3">
-        <v>148100</v>
+        <v>156200</v>
       </c>
       <c r="I10" s="3">
-        <v>129200</v>
+        <v>148200</v>
       </c>
       <c r="J10" s="3">
+        <v>129300</v>
+      </c>
+      <c r="K10" s="3">
         <v>99400</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,22 +811,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E12" s="3">
         <v>10300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5300</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -825,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,23 +868,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-16200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>45900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -876,12 +895,15 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>252400</v>
+      </c>
+      <c r="E17" s="3">
         <v>229400</v>
       </c>
-      <c r="E17" s="3">
-        <v>318700</v>
-      </c>
       <c r="F17" s="3">
-        <v>342600</v>
+        <v>318800</v>
       </c>
       <c r="G17" s="3">
-        <v>381200</v>
+        <v>342800</v>
       </c>
       <c r="H17" s="3">
-        <v>324000</v>
+        <v>381300</v>
       </c>
       <c r="I17" s="3">
-        <v>280700</v>
+        <v>324100</v>
       </c>
       <c r="J17" s="3">
+        <v>280900</v>
+      </c>
+      <c r="K17" s="3">
         <v>229300</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9300</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3600</v>
+        <v>-46100</v>
       </c>
       <c r="E21" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F21" s="3">
         <v>11500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>16200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>35700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>39200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>21000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
-        <v>11200</v>
-      </c>
       <c r="G23" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-7500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8400</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>22800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7600</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>22800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7600</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>22800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7600</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>22800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7600</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E41" s="3">
         <v>58400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>60100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>160900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17800</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1515,129 +1604,144 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
         <v>60200</v>
       </c>
-      <c r="H42" s="3">
-        <v>91900</v>
-      </c>
       <c r="I42" s="3">
+        <v>92000</v>
+      </c>
+      <c r="J42" s="3">
         <v>101200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>32900</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24100</v>
+        <v>22400</v>
       </c>
       <c r="E43" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F43" s="3">
         <v>31800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>132300</v>
       </c>
-      <c r="G43" s="3">
-        <v>30700</v>
-      </c>
       <c r="H43" s="3">
+        <v>30800</v>
+      </c>
+      <c r="I43" s="3">
         <v>40900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>30000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36200</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E44" s="3">
         <v>20400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>22400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>56200</v>
       </c>
-      <c r="G44" s="3">
-        <v>30900</v>
-      </c>
       <c r="H44" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I44" s="3">
         <v>27300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>27500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>19200</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E46" s="3">
         <v>108100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>118500</v>
       </c>
-      <c r="F46" s="3">
-        <v>150500</v>
-      </c>
       <c r="G46" s="3">
+        <v>150600</v>
+      </c>
+      <c r="H46" s="3">
         <v>166400</v>
       </c>
-      <c r="H46" s="3">
-        <v>189900</v>
-      </c>
       <c r="I46" s="3">
+        <v>190000</v>
+      </c>
+      <c r="J46" s="3">
         <v>176100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>108500</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1653,72 +1757,81 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I47" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>600</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>106300</v>
+        <v>105200</v>
       </c>
       <c r="E48" s="3">
+        <v>106400</v>
+      </c>
+      <c r="F48" s="3">
         <v>79000</v>
       </c>
-      <c r="F48" s="3">
-        <v>110600</v>
-      </c>
       <c r="G48" s="3">
-        <v>77500</v>
+        <v>110700</v>
       </c>
       <c r="H48" s="3">
-        <v>70800</v>
+        <v>77600</v>
       </c>
       <c r="I48" s="3">
-        <v>61400</v>
+        <v>70900</v>
       </c>
       <c r="J48" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K48" s="3">
         <v>45400</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E49" s="3">
         <v>12500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12300</v>
       </c>
-      <c r="F49" s="3">
-        <v>36400</v>
-      </c>
       <c r="G49" s="3">
+        <v>36500</v>
+      </c>
+      <c r="H49" s="3">
         <v>33800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>27800</v>
       </c>
-      <c r="I49" s="3">
-        <v>21700</v>
-      </c>
       <c r="J49" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K49" s="3">
         <v>17000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E52" s="3">
         <v>6400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13900</v>
       </c>
-      <c r="F52" s="3">
-        <v>14400</v>
-      </c>
       <c r="G52" s="3">
+        <v>14500</v>
+      </c>
+      <c r="H52" s="3">
         <v>12200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3500</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>233300</v>
+        <v>254100</v>
       </c>
       <c r="E54" s="3">
-        <v>223600</v>
+        <v>233400</v>
       </c>
       <c r="F54" s="3">
-        <v>224100</v>
+        <v>223700</v>
       </c>
       <c r="G54" s="3">
-        <v>290000</v>
+        <v>224200</v>
       </c>
       <c r="H54" s="3">
-        <v>297200</v>
+        <v>290100</v>
       </c>
       <c r="I54" s="3">
-        <v>270400</v>
+        <v>297300</v>
       </c>
       <c r="J54" s="3">
+        <v>270500</v>
+      </c>
+      <c r="K54" s="3">
         <v>175100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E57" s="3">
         <v>8300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14700</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>4500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E59" s="3">
         <v>30500</v>
       </c>
-      <c r="E59" s="3">
-        <v>32800</v>
-      </c>
       <c r="F59" s="3">
-        <v>78000</v>
+        <v>32900</v>
       </c>
       <c r="G59" s="3">
+        <v>78100</v>
+      </c>
+      <c r="H59" s="3">
         <v>42400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25100</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E60" s="3">
         <v>39900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43900</v>
       </c>
-      <c r="F60" s="3">
-        <v>61500</v>
-      </c>
       <c r="G60" s="3">
-        <v>65100</v>
+        <v>61600</v>
       </c>
       <c r="H60" s="3">
+        <v>65200</v>
+      </c>
+      <c r="I60" s="3">
         <v>46500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>43800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>44300</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E61" s="3">
         <v>6500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>4000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8100</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E62" s="3">
         <v>38500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>167800</v>
+      </c>
+      <c r="E66" s="3">
         <v>84900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64400</v>
       </c>
-      <c r="F66" s="3">
-        <v>66700</v>
-      </c>
       <c r="G66" s="3">
+        <v>66800</v>
+      </c>
+      <c r="H66" s="3">
         <v>75700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>65400</v>
       </c>
-      <c r="I66" s="3">
-        <v>52700</v>
-      </c>
       <c r="J66" s="3">
+        <v>52800</v>
+      </c>
+      <c r="K66" s="3">
         <v>53000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-72900</v>
+        <v>-141800</v>
       </c>
       <c r="E72" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-58600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-58100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-40800</v>
       </c>
-      <c r="I72" s="3">
-        <v>-50000</v>
-      </c>
       <c r="J72" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-72200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>148400</v>
+        <v>86400</v>
       </c>
       <c r="E76" s="3">
-        <v>159200</v>
+        <v>148500</v>
       </c>
       <c r="F76" s="3">
-        <v>157300</v>
+        <v>159300</v>
       </c>
       <c r="G76" s="3">
+        <v>157400</v>
+      </c>
+      <c r="H76" s="3">
         <v>214300</v>
       </c>
-      <c r="H76" s="3">
-        <v>231800</v>
-      </c>
       <c r="I76" s="3">
-        <v>217600</v>
+        <v>231900</v>
       </c>
       <c r="J76" s="3">
+        <v>217700</v>
+      </c>
+      <c r="K76" s="3">
         <v>122000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>22800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7600</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E83" s="3">
         <v>14900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15600</v>
       </c>
-      <c r="F83" s="3">
-        <v>17400</v>
-      </c>
       <c r="G83" s="3">
+        <v>17500</v>
+      </c>
+      <c r="H83" s="3">
         <v>22800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12600</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E89" s="3">
         <v>15900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>37100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>38600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17600</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13800</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-19300</v>
-      </c>
       <c r="F94" s="3">
-        <v>-17100</v>
+        <v>-19400</v>
       </c>
       <c r="G94" s="3">
-        <v>-37000</v>
+        <v>-17200</v>
       </c>
       <c r="H94" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-35500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-32800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19800</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2852,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E100" s="3">
         <v>7300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13100</v>
       </c>
-      <c r="I100" s="3">
-        <v>56800</v>
-      </c>
       <c r="J100" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K100" s="3">
         <v>9200</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>65700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7000</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>188100</v>
+        <v>192500</v>
       </c>
       <c r="E8" s="3">
-        <v>218600</v>
+        <v>223700</v>
       </c>
       <c r="F8" s="3">
-        <v>315700</v>
+        <v>323100</v>
       </c>
       <c r="G8" s="3">
-        <v>350000</v>
+        <v>358300</v>
       </c>
       <c r="H8" s="3">
-        <v>373900</v>
+        <v>382700</v>
       </c>
       <c r="I8" s="3">
-        <v>340300</v>
+        <v>348300</v>
       </c>
       <c r="J8" s="3">
-        <v>301500</v>
+        <v>308700</v>
       </c>
       <c r="K8" s="3">
         <v>238600</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>158200</v>
+        <v>161900</v>
       </c>
       <c r="E9" s="3">
-        <v>150700</v>
+        <v>154200</v>
       </c>
       <c r="F9" s="3">
-        <v>205600</v>
+        <v>210400</v>
       </c>
       <c r="G9" s="3">
-        <v>477300</v>
+        <v>488500</v>
       </c>
       <c r="H9" s="3">
-        <v>217800</v>
+        <v>222900</v>
       </c>
       <c r="I9" s="3">
-        <v>192100</v>
+        <v>196600</v>
       </c>
       <c r="J9" s="3">
-        <v>172200</v>
+        <v>176300</v>
       </c>
       <c r="K9" s="3">
         <v>139200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29900</v>
+        <v>30600</v>
       </c>
       <c r="E10" s="3">
-        <v>67900</v>
+        <v>69500</v>
       </c>
       <c r="F10" s="3">
-        <v>110100</v>
+        <v>112700</v>
       </c>
       <c r="G10" s="3">
-        <v>-127200</v>
+        <v>-130200</v>
       </c>
       <c r="H10" s="3">
-        <v>156200</v>
+        <v>159800</v>
       </c>
       <c r="I10" s="3">
-        <v>148200</v>
+        <v>151700</v>
       </c>
       <c r="J10" s="3">
-        <v>129300</v>
+        <v>132300</v>
       </c>
       <c r="K10" s="3">
         <v>99400</v>
@@ -818,16 +818,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="E12" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="F12" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="G12" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -878,16 +878,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-12800</v>
+        <v>-13100</v>
       </c>
       <c r="E14" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="F14" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G14" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>252400</v>
+        <v>258400</v>
       </c>
       <c r="E17" s="3">
-        <v>229400</v>
+        <v>234900</v>
       </c>
       <c r="F17" s="3">
-        <v>318800</v>
+        <v>326300</v>
       </c>
       <c r="G17" s="3">
-        <v>342800</v>
+        <v>350900</v>
       </c>
       <c r="H17" s="3">
-        <v>381300</v>
+        <v>390300</v>
       </c>
       <c r="I17" s="3">
-        <v>324100</v>
+        <v>331800</v>
       </c>
       <c r="J17" s="3">
-        <v>280900</v>
+        <v>287500</v>
       </c>
       <c r="K17" s="3">
         <v>229300</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-64300</v>
+        <v>-65900</v>
       </c>
       <c r="E18" s="3">
-        <v>-10900</v>
+        <v>-11200</v>
       </c>
       <c r="F18" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="G18" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="H18" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="I18" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="J18" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="K18" s="3">
         <v>9300</v>
@@ -1032,7 +1032,7 @@
         <v>-1000</v>
       </c>
       <c r="G20" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H20" s="3">
         <v>700</v>
@@ -1041,7 +1041,7 @@
         <v>-300</v>
       </c>
       <c r="J20" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K20" s="3">
         <v>-900</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-46100</v>
+        <v>-47300</v>
       </c>
       <c r="E21" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F21" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="G21" s="3">
-        <v>29400</v>
+        <v>30000</v>
       </c>
       <c r="H21" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="I21" s="3">
-        <v>35700</v>
+        <v>36400</v>
       </c>
       <c r="J21" s="3">
-        <v>39200</v>
+        <v>40000</v>
       </c>
       <c r="K21" s="3">
         <v>21000</v>
@@ -1083,7 +1083,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -1092,7 +1092,7 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H22" s="3">
         <v>800</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-68600</v>
+        <v>-70300</v>
       </c>
       <c r="E23" s="3">
-        <v>-11700</v>
+        <v>-12000</v>
       </c>
       <c r="F23" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="G23" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="H23" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="I23" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="J23" s="3">
-        <v>23200</v>
+        <v>23700</v>
       </c>
       <c r="K23" s="3">
         <v>8400</v>
@@ -1152,13 +1152,13 @@
         <v>1300</v>
       </c>
       <c r="G24" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H24" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I24" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-68400</v>
+        <v>-70000</v>
       </c>
       <c r="E26" s="3">
-        <v>-14400</v>
+        <v>-14700</v>
       </c>
       <c r="F26" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="G26" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H26" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="I26" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="J26" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="K26" s="3">
         <v>7600</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-68400</v>
+        <v>-70000</v>
       </c>
       <c r="E27" s="3">
-        <v>-14400</v>
+        <v>-14700</v>
       </c>
       <c r="F27" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="G27" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H27" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="I27" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="J27" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="K27" s="3">
         <v>7600</v>
@@ -1392,7 +1392,7 @@
         <v>1000</v>
       </c>
       <c r="G32" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H32" s="3">
         <v>-700</v>
@@ -1401,7 +1401,7 @@
         <v>300</v>
       </c>
       <c r="J32" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="K32" s="3">
         <v>900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-68400</v>
+        <v>-70000</v>
       </c>
       <c r="E33" s="3">
-        <v>-14400</v>
+        <v>-14700</v>
       </c>
       <c r="F33" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="G33" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H33" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="I33" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="J33" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="K33" s="3">
         <v>7600</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-68400</v>
+        <v>-70000</v>
       </c>
       <c r="E35" s="3">
-        <v>-14400</v>
+        <v>-14700</v>
       </c>
       <c r="F35" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="G35" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H35" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="I35" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="J35" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="K35" s="3">
         <v>7600</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>76900</v>
+        <v>78700</v>
       </c>
       <c r="E41" s="3">
-        <v>58400</v>
+        <v>59800</v>
       </c>
       <c r="F41" s="3">
-        <v>60100</v>
+        <v>61500</v>
       </c>
       <c r="G41" s="3">
-        <v>160900</v>
+        <v>164700</v>
       </c>
       <c r="H41" s="3">
-        <v>41300</v>
+        <v>42300</v>
       </c>
       <c r="I41" s="3">
-        <v>27200</v>
+        <v>27900</v>
       </c>
       <c r="J41" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="K41" s="3">
         <v>17800</v>
@@ -1608,13 +1608,13 @@
         <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>60200</v>
+        <v>61600</v>
       </c>
       <c r="I42" s="3">
-        <v>92000</v>
+        <v>94200</v>
       </c>
       <c r="J42" s="3">
-        <v>101200</v>
+        <v>103600</v>
       </c>
       <c r="K42" s="3">
         <v>32900</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="E43" s="3">
-        <v>24200</v>
+        <v>24700</v>
       </c>
       <c r="F43" s="3">
-        <v>31800</v>
+        <v>32500</v>
       </c>
       <c r="G43" s="3">
-        <v>132300</v>
+        <v>135400</v>
       </c>
       <c r="H43" s="3">
-        <v>30800</v>
+        <v>31500</v>
       </c>
       <c r="I43" s="3">
-        <v>40900</v>
+        <v>41800</v>
       </c>
       <c r="J43" s="3">
-        <v>30000</v>
+        <v>30700</v>
       </c>
       <c r="K43" s="3">
         <v>36200</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="E44" s="3">
-        <v>20400</v>
+        <v>20800</v>
       </c>
       <c r="F44" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="G44" s="3">
-        <v>56200</v>
+        <v>57500</v>
       </c>
       <c r="H44" s="3">
-        <v>31000</v>
+        <v>31700</v>
       </c>
       <c r="I44" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="J44" s="3">
-        <v>27500</v>
+        <v>28200</v>
       </c>
       <c r="K44" s="3">
         <v>19200</v>
@@ -1686,22 +1686,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="E45" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F45" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G45" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H45" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I45" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J45" s="3">
         <v>2100</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>132300</v>
+        <v>135400</v>
       </c>
       <c r="E46" s="3">
-        <v>108100</v>
+        <v>110700</v>
       </c>
       <c r="F46" s="3">
-        <v>118500</v>
+        <v>121300</v>
       </c>
       <c r="G46" s="3">
-        <v>150600</v>
+        <v>154100</v>
       </c>
       <c r="H46" s="3">
-        <v>166400</v>
+        <v>170400</v>
       </c>
       <c r="I46" s="3">
-        <v>190000</v>
+        <v>194500</v>
       </c>
       <c r="J46" s="3">
-        <v>176100</v>
+        <v>180300</v>
       </c>
       <c r="K46" s="3">
         <v>108500</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>105200</v>
+        <v>107700</v>
       </c>
       <c r="E48" s="3">
-        <v>106400</v>
+        <v>108900</v>
       </c>
       <c r="F48" s="3">
-        <v>79000</v>
+        <v>80900</v>
       </c>
       <c r="G48" s="3">
-        <v>110700</v>
+        <v>113300</v>
       </c>
       <c r="H48" s="3">
-        <v>77600</v>
+        <v>79400</v>
       </c>
       <c r="I48" s="3">
-        <v>70900</v>
+        <v>72500</v>
       </c>
       <c r="J48" s="3">
-        <v>61500</v>
+        <v>62900</v>
       </c>
       <c r="K48" s="3">
         <v>45400</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="E49" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="F49" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="G49" s="3">
-        <v>36500</v>
+        <v>37300</v>
       </c>
       <c r="H49" s="3">
-        <v>33800</v>
+        <v>34600</v>
       </c>
       <c r="I49" s="3">
-        <v>27800</v>
+        <v>28400</v>
       </c>
       <c r="J49" s="3">
-        <v>21800</v>
+        <v>22300</v>
       </c>
       <c r="K49" s="3">
         <v>17000</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="E52" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="F52" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="G52" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="H52" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="I52" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="J52" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="K52" s="3">
         <v>3500</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>254100</v>
+        <v>260100</v>
       </c>
       <c r="E54" s="3">
-        <v>233400</v>
+        <v>238900</v>
       </c>
       <c r="F54" s="3">
-        <v>223700</v>
+        <v>229000</v>
       </c>
       <c r="G54" s="3">
-        <v>224200</v>
+        <v>229500</v>
       </c>
       <c r="H54" s="3">
-        <v>290100</v>
+        <v>296900</v>
       </c>
       <c r="I54" s="3">
-        <v>297300</v>
+        <v>304400</v>
       </c>
       <c r="J54" s="3">
-        <v>270500</v>
+        <v>276900</v>
       </c>
       <c r="K54" s="3">
         <v>175100</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="E57" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="F57" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="G57" s="3">
-        <v>57700</v>
+        <v>59100</v>
       </c>
       <c r="H57" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="I57" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="J57" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="K57" s="3">
         <v>14700</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="E58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H58" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="I58" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="J58" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="K58" s="3">
         <v>4500</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>27500</v>
+        <v>28200</v>
       </c>
       <c r="E59" s="3">
-        <v>30500</v>
+        <v>31200</v>
       </c>
       <c r="F59" s="3">
-        <v>32900</v>
+        <v>33600</v>
       </c>
       <c r="G59" s="3">
-        <v>78100</v>
+        <v>79900</v>
       </c>
       <c r="H59" s="3">
-        <v>42400</v>
+        <v>43400</v>
       </c>
       <c r="I59" s="3">
-        <v>28300</v>
+        <v>29000</v>
       </c>
       <c r="J59" s="3">
-        <v>32000</v>
+        <v>32800</v>
       </c>
       <c r="K59" s="3">
         <v>25100</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47300</v>
+        <v>48400</v>
       </c>
       <c r="E60" s="3">
-        <v>39900</v>
+        <v>40900</v>
       </c>
       <c r="F60" s="3">
-        <v>43900</v>
+        <v>44900</v>
       </c>
       <c r="G60" s="3">
-        <v>61600</v>
+        <v>63000</v>
       </c>
       <c r="H60" s="3">
-        <v>65200</v>
+        <v>66700</v>
       </c>
       <c r="I60" s="3">
-        <v>46500</v>
+        <v>47600</v>
       </c>
       <c r="J60" s="3">
-        <v>43800</v>
+        <v>44800</v>
       </c>
       <c r="K60" s="3">
         <v>44300</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85800</v>
+        <v>87800</v>
       </c>
       <c r="E61" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="H61" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="I61" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="J61" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="K61" s="3">
         <v>8100</v>
@@ -2164,16 +2164,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34700</v>
+        <v>35600</v>
       </c>
       <c r="E62" s="3">
-        <v>38500</v>
+        <v>39400</v>
       </c>
       <c r="F62" s="3">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="G62" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H62" s="3">
         <v>1600</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>167800</v>
+        <v>171800</v>
       </c>
       <c r="E66" s="3">
-        <v>84900</v>
+        <v>86900</v>
       </c>
       <c r="F66" s="3">
-        <v>64400</v>
+        <v>66000</v>
       </c>
       <c r="G66" s="3">
-        <v>66800</v>
+        <v>68300</v>
       </c>
       <c r="H66" s="3">
-        <v>75700</v>
+        <v>77500</v>
       </c>
       <c r="I66" s="3">
-        <v>65400</v>
+        <v>67000</v>
       </c>
       <c r="J66" s="3">
-        <v>52800</v>
+        <v>54000</v>
       </c>
       <c r="K66" s="3">
         <v>53000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-141800</v>
+        <v>-145200</v>
       </c>
       <c r="E72" s="3">
-        <v>-73000</v>
+        <v>-74700</v>
       </c>
       <c r="F72" s="3">
-        <v>-58600</v>
+        <v>-60000</v>
       </c>
       <c r="G72" s="3">
-        <v>-53000</v>
+        <v>-54200</v>
       </c>
       <c r="H72" s="3">
-        <v>-58100</v>
+        <v>-59500</v>
       </c>
       <c r="I72" s="3">
-        <v>-40800</v>
+        <v>-41700</v>
       </c>
       <c r="J72" s="3">
-        <v>-50100</v>
+        <v>-51200</v>
       </c>
       <c r="K72" s="3">
         <v>-72200</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>86400</v>
+        <v>88400</v>
       </c>
       <c r="E76" s="3">
-        <v>148500</v>
+        <v>152000</v>
       </c>
       <c r="F76" s="3">
-        <v>159300</v>
+        <v>163000</v>
       </c>
       <c r="G76" s="3">
-        <v>157400</v>
+        <v>161100</v>
       </c>
       <c r="H76" s="3">
-        <v>214300</v>
+        <v>219400</v>
       </c>
       <c r="I76" s="3">
-        <v>231900</v>
+        <v>237400</v>
       </c>
       <c r="J76" s="3">
-        <v>217700</v>
+        <v>222800</v>
       </c>
       <c r="K76" s="3">
         <v>122000</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-68400</v>
+        <v>-70000</v>
       </c>
       <c r="E81" s="3">
-        <v>-14400</v>
+        <v>-14700</v>
       </c>
       <c r="F81" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="G81" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H81" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="I81" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="J81" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="K81" s="3">
         <v>7600</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="E83" s="3">
-        <v>14900</v>
+        <v>15300</v>
       </c>
       <c r="F83" s="3">
-        <v>15600</v>
+        <v>16000</v>
       </c>
       <c r="G83" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="H83" s="3">
-        <v>22800</v>
+        <v>23400</v>
       </c>
       <c r="I83" s="3">
-        <v>19700</v>
+        <v>20200</v>
       </c>
       <c r="J83" s="3">
-        <v>16000</v>
+        <v>16400</v>
       </c>
       <c r="K83" s="3">
         <v>12600</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-39800</v>
+        <v>-40700</v>
       </c>
       <c r="E89" s="3">
-        <v>15900</v>
+        <v>16300</v>
       </c>
       <c r="F89" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="G89" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="H89" s="3">
-        <v>37100</v>
+        <v>38000</v>
       </c>
       <c r="I89" s="3">
-        <v>25700</v>
+        <v>26300</v>
       </c>
       <c r="J89" s="3">
-        <v>38600</v>
+        <v>39500</v>
       </c>
       <c r="K89" s="3">
         <v>17600</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15600</v>
+        <v>-16000</v>
       </c>
       <c r="E91" s="3">
-        <v>-21100</v>
+        <v>-21600</v>
       </c>
       <c r="F91" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="G91" s="3">
-        <v>-11000</v>
+        <v>-11300</v>
       </c>
       <c r="H91" s="3">
-        <v>-23700</v>
+        <v>-24300</v>
       </c>
       <c r="I91" s="3">
-        <v>-24400</v>
+        <v>-25000</v>
       </c>
       <c r="J91" s="3">
-        <v>-23300</v>
+        <v>-23900</v>
       </c>
       <c r="K91" s="3">
         <v>-13800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18000</v>
+        <v>-18400</v>
       </c>
       <c r="E94" s="3">
-        <v>-24700</v>
+        <v>-25300</v>
       </c>
       <c r="F94" s="3">
-        <v>-19400</v>
+        <v>-19800</v>
       </c>
       <c r="G94" s="3">
-        <v>-17200</v>
+        <v>-17600</v>
       </c>
       <c r="H94" s="3">
-        <v>-37100</v>
+        <v>-37900</v>
       </c>
       <c r="I94" s="3">
-        <v>-35500</v>
+        <v>-36300</v>
       </c>
       <c r="J94" s="3">
-        <v>-32800</v>
+        <v>-33600</v>
       </c>
       <c r="K94" s="3">
         <v>-19800</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>79600</v>
+        <v>81500</v>
       </c>
       <c r="E100" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="F100" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="G100" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="H100" s="3">
-        <v>-15700</v>
+        <v>-16100</v>
       </c>
       <c r="I100" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="J100" s="3">
-        <v>56900</v>
+        <v>58200</v>
       </c>
       <c r="K100" s="3">
         <v>9200</v>
@@ -3224,16 +3224,16 @@
         <v>1400</v>
       </c>
       <c r="G101" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I101" s="3">
         <v>-600</v>
       </c>
       <c r="J101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="E102" s="3">
         <v>-1700</v>
       </c>
       <c r="F102" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="G102" s="3">
-        <v>-12800</v>
+        <v>-13100</v>
       </c>
       <c r="H102" s="3">
-        <v>-17700</v>
+        <v>-18100</v>
       </c>
       <c r="I102" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J102" s="3">
-        <v>65700</v>
+        <v>67300</v>
       </c>
       <c r="K102" s="3">
         <v>7000</v>

--- a/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>192500</v>
+        <v>190700</v>
       </c>
       <c r="E8" s="3">
-        <v>223700</v>
+        <v>221700</v>
       </c>
       <c r="F8" s="3">
-        <v>323100</v>
+        <v>320200</v>
       </c>
       <c r="G8" s="3">
-        <v>358300</v>
+        <v>355000</v>
       </c>
       <c r="H8" s="3">
-        <v>382700</v>
+        <v>379200</v>
       </c>
       <c r="I8" s="3">
-        <v>348300</v>
+        <v>345100</v>
       </c>
       <c r="J8" s="3">
-        <v>308700</v>
+        <v>305800</v>
       </c>
       <c r="K8" s="3">
         <v>238600</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>161900</v>
+        <v>160400</v>
       </c>
       <c r="E9" s="3">
-        <v>154200</v>
+        <v>152800</v>
       </c>
       <c r="F9" s="3">
-        <v>210400</v>
+        <v>208500</v>
       </c>
       <c r="G9" s="3">
-        <v>488500</v>
+        <v>484000</v>
       </c>
       <c r="H9" s="3">
-        <v>222900</v>
+        <v>220800</v>
       </c>
       <c r="I9" s="3">
-        <v>196600</v>
+        <v>194800</v>
       </c>
       <c r="J9" s="3">
-        <v>176300</v>
+        <v>174700</v>
       </c>
       <c r="K9" s="3">
         <v>139200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="E10" s="3">
-        <v>69500</v>
+        <v>68900</v>
       </c>
       <c r="F10" s="3">
-        <v>112700</v>
+        <v>111700</v>
       </c>
       <c r="G10" s="3">
-        <v>-130200</v>
+        <v>-129000</v>
       </c>
       <c r="H10" s="3">
-        <v>159800</v>
+        <v>158400</v>
       </c>
       <c r="I10" s="3">
-        <v>151700</v>
+        <v>150300</v>
       </c>
       <c r="J10" s="3">
-        <v>132300</v>
+        <v>131100</v>
       </c>
       <c r="K10" s="3">
         <v>99400</v>
@@ -818,13 +818,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="E12" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="F12" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="G12" s="3">
         <v>5400</v>
@@ -878,16 +878,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-13100</v>
+        <v>-12900</v>
       </c>
       <c r="E14" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="F14" s="3">
         <v>5900</v>
       </c>
       <c r="G14" s="3">
-        <v>47000</v>
+        <v>46600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>258400</v>
+        <v>256000</v>
       </c>
       <c r="E17" s="3">
-        <v>234900</v>
+        <v>232700</v>
       </c>
       <c r="F17" s="3">
-        <v>326300</v>
+        <v>323300</v>
       </c>
       <c r="G17" s="3">
-        <v>350900</v>
+        <v>347600</v>
       </c>
       <c r="H17" s="3">
-        <v>390300</v>
+        <v>386700</v>
       </c>
       <c r="I17" s="3">
-        <v>331800</v>
+        <v>328700</v>
       </c>
       <c r="J17" s="3">
-        <v>287500</v>
+        <v>284800</v>
       </c>
       <c r="K17" s="3">
         <v>229300</v>
@@ -979,10 +979,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-65900</v>
+        <v>-65200</v>
       </c>
       <c r="E18" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="F18" s="3">
         <v>-3200</v>
@@ -991,13 +991,13 @@
         <v>7400</v>
       </c>
       <c r="H18" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="I18" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="J18" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="K18" s="3">
         <v>9300</v>
@@ -1041,7 +1041,7 @@
         <v>-300</v>
       </c>
       <c r="J20" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K20" s="3">
         <v>-900</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-47300</v>
+        <v>-46800</v>
       </c>
       <c r="E21" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F21" s="3">
         <v>11700</v>
       </c>
       <c r="G21" s="3">
-        <v>30000</v>
+        <v>29800</v>
       </c>
       <c r="H21" s="3">
         <v>16400</v>
       </c>
       <c r="I21" s="3">
-        <v>36400</v>
+        <v>36200</v>
       </c>
       <c r="J21" s="3">
-        <v>40000</v>
+        <v>39800</v>
       </c>
       <c r="K21" s="3">
         <v>21000</v>
@@ -1083,7 +1083,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-70300</v>
+        <v>-69600</v>
       </c>
       <c r="E23" s="3">
-        <v>-12000</v>
+        <v>-11900</v>
       </c>
       <c r="F23" s="3">
         <v>-4400</v>
       </c>
       <c r="G23" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="H23" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="I23" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="J23" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="K23" s="3">
         <v>8400</v>
@@ -1152,10 +1152,10 @@
         <v>1300</v>
       </c>
       <c r="G24" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H24" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I24" s="3">
         <v>6300</v>
@@ -1203,10 +1203,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-70000</v>
+        <v>-69400</v>
       </c>
       <c r="E26" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="F26" s="3">
         <v>-5700</v>
@@ -1215,13 +1215,13 @@
         <v>7200</v>
       </c>
       <c r="H26" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="I26" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J26" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="K26" s="3">
         <v>7600</v>
@@ -1233,10 +1233,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-70000</v>
+        <v>-69400</v>
       </c>
       <c r="E27" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="F27" s="3">
         <v>-5700</v>
@@ -1245,13 +1245,13 @@
         <v>7200</v>
       </c>
       <c r="H27" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="I27" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J27" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="K27" s="3">
         <v>7600</v>
@@ -1401,7 +1401,7 @@
         <v>300</v>
       </c>
       <c r="J32" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K32" s="3">
         <v>900</v>
@@ -1413,10 +1413,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-70000</v>
+        <v>-69400</v>
       </c>
       <c r="E33" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="F33" s="3">
         <v>-5700</v>
@@ -1425,13 +1425,13 @@
         <v>7200</v>
       </c>
       <c r="H33" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="I33" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J33" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="K33" s="3">
         <v>7600</v>
@@ -1473,10 +1473,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-70000</v>
+        <v>-69400</v>
       </c>
       <c r="E35" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="F35" s="3">
         <v>-5700</v>
@@ -1485,13 +1485,13 @@
         <v>7200</v>
       </c>
       <c r="H35" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="I35" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J35" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="K35" s="3">
         <v>7600</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78700</v>
+        <v>77900</v>
       </c>
       <c r="E41" s="3">
-        <v>59800</v>
+        <v>59300</v>
       </c>
       <c r="F41" s="3">
-        <v>61500</v>
+        <v>61000</v>
       </c>
       <c r="G41" s="3">
-        <v>164700</v>
+        <v>163200</v>
       </c>
       <c r="H41" s="3">
-        <v>42300</v>
+        <v>41900</v>
       </c>
       <c r="I41" s="3">
-        <v>27900</v>
+        <v>27600</v>
       </c>
       <c r="J41" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="K41" s="3">
         <v>17800</v>
@@ -1608,13 +1608,13 @@
         <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>61600</v>
+        <v>61000</v>
       </c>
       <c r="I42" s="3">
-        <v>94200</v>
+        <v>93300</v>
       </c>
       <c r="J42" s="3">
-        <v>103600</v>
+        <v>102700</v>
       </c>
       <c r="K42" s="3">
         <v>32900</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="E43" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="F43" s="3">
-        <v>32500</v>
+        <v>32200</v>
       </c>
       <c r="G43" s="3">
-        <v>135400</v>
+        <v>134200</v>
       </c>
       <c r="H43" s="3">
-        <v>31500</v>
+        <v>31200</v>
       </c>
       <c r="I43" s="3">
-        <v>41800</v>
+        <v>41500</v>
       </c>
       <c r="J43" s="3">
-        <v>30700</v>
+        <v>30500</v>
       </c>
       <c r="K43" s="3">
         <v>36200</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="E44" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="F44" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="G44" s="3">
-        <v>57500</v>
+        <v>57000</v>
       </c>
       <c r="H44" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="I44" s="3">
+        <v>27700</v>
+      </c>
+      <c r="J44" s="3">
         <v>27900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>28200</v>
       </c>
       <c r="K44" s="3">
         <v>19200</v>
@@ -1686,13 +1686,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="E45" s="3">
         <v>5300</v>
       </c>
       <c r="F45" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G45" s="3">
         <v>2900</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>135400</v>
+        <v>134200</v>
       </c>
       <c r="E46" s="3">
-        <v>110700</v>
+        <v>109700</v>
       </c>
       <c r="F46" s="3">
-        <v>121300</v>
+        <v>120200</v>
       </c>
       <c r="G46" s="3">
-        <v>154100</v>
+        <v>152700</v>
       </c>
       <c r="H46" s="3">
-        <v>170400</v>
+        <v>168800</v>
       </c>
       <c r="I46" s="3">
-        <v>194500</v>
+        <v>192700</v>
       </c>
       <c r="J46" s="3">
-        <v>180300</v>
+        <v>178600</v>
       </c>
       <c r="K46" s="3">
         <v>108500</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>107700</v>
+        <v>106700</v>
       </c>
       <c r="E48" s="3">
-        <v>108900</v>
+        <v>107900</v>
       </c>
       <c r="F48" s="3">
-        <v>80900</v>
+        <v>80200</v>
       </c>
       <c r="G48" s="3">
-        <v>113300</v>
+        <v>112200</v>
       </c>
       <c r="H48" s="3">
-        <v>79400</v>
+        <v>78700</v>
       </c>
       <c r="I48" s="3">
-        <v>72500</v>
+        <v>71900</v>
       </c>
       <c r="J48" s="3">
-        <v>62900</v>
+        <v>62300</v>
       </c>
       <c r="K48" s="3">
         <v>45400</v>
@@ -1809,22 +1809,22 @@
         <v>9600</v>
       </c>
       <c r="E49" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="F49" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="G49" s="3">
-        <v>37300</v>
+        <v>37000</v>
       </c>
       <c r="H49" s="3">
-        <v>34600</v>
+        <v>34300</v>
       </c>
       <c r="I49" s="3">
-        <v>28400</v>
+        <v>28200</v>
       </c>
       <c r="J49" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="K49" s="3">
         <v>17000</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="E52" s="3">
         <v>6500</v>
       </c>
       <c r="F52" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="G52" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="H52" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="I52" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="J52" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="K52" s="3">
         <v>3500</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>260100</v>
+        <v>257800</v>
       </c>
       <c r="E54" s="3">
-        <v>238900</v>
+        <v>236700</v>
       </c>
       <c r="F54" s="3">
-        <v>229000</v>
+        <v>226900</v>
       </c>
       <c r="G54" s="3">
-        <v>229500</v>
+        <v>227300</v>
       </c>
       <c r="H54" s="3">
-        <v>296900</v>
+        <v>294200</v>
       </c>
       <c r="I54" s="3">
-        <v>304400</v>
+        <v>301600</v>
       </c>
       <c r="J54" s="3">
-        <v>276900</v>
+        <v>274300</v>
       </c>
       <c r="K54" s="3">
         <v>175100</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="E57" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="F57" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="G57" s="3">
-        <v>59100</v>
+        <v>58500</v>
       </c>
       <c r="H57" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="I57" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="J57" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="K57" s="3">
         <v>14700</v>
@@ -2044,7 +2044,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="E58" s="3">
         <v>1200</v>
@@ -2056,13 +2056,13 @@
         <v>4600</v>
       </c>
       <c r="H58" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I58" s="3">
         <v>6600</v>
       </c>
       <c r="J58" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="K58" s="3">
         <v>4500</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="E59" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="F59" s="3">
-        <v>33600</v>
+        <v>33300</v>
       </c>
       <c r="G59" s="3">
-        <v>79900</v>
+        <v>79200</v>
       </c>
       <c r="H59" s="3">
-        <v>43400</v>
+        <v>43000</v>
       </c>
       <c r="I59" s="3">
-        <v>29000</v>
+        <v>28700</v>
       </c>
       <c r="J59" s="3">
-        <v>32800</v>
+        <v>32500</v>
       </c>
       <c r="K59" s="3">
         <v>25100</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>48400</v>
+        <v>47900</v>
       </c>
       <c r="E60" s="3">
-        <v>40900</v>
+        <v>40500</v>
       </c>
       <c r="F60" s="3">
-        <v>44900</v>
+        <v>44500</v>
       </c>
       <c r="G60" s="3">
-        <v>63000</v>
+        <v>62400</v>
       </c>
       <c r="H60" s="3">
-        <v>66700</v>
+        <v>66100</v>
       </c>
       <c r="I60" s="3">
-        <v>47600</v>
+        <v>47200</v>
       </c>
       <c r="J60" s="3">
-        <v>44800</v>
+        <v>44400</v>
       </c>
       <c r="K60" s="3">
         <v>44300</v>
@@ -2134,7 +2134,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>87800</v>
+        <v>87000</v>
       </c>
       <c r="E61" s="3">
         <v>6600</v>
@@ -2143,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H61" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="I61" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="J61" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="K61" s="3">
         <v>8100</v>
@@ -2164,16 +2164,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35600</v>
+        <v>35200</v>
       </c>
       <c r="E62" s="3">
-        <v>39400</v>
+        <v>39000</v>
       </c>
       <c r="F62" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="G62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H62" s="3">
         <v>1600</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>171800</v>
+        <v>170200</v>
       </c>
       <c r="E66" s="3">
-        <v>86900</v>
+        <v>86100</v>
       </c>
       <c r="F66" s="3">
-        <v>66000</v>
+        <v>65400</v>
       </c>
       <c r="G66" s="3">
-        <v>68300</v>
+        <v>67700</v>
       </c>
       <c r="H66" s="3">
-        <v>77500</v>
+        <v>76800</v>
       </c>
       <c r="I66" s="3">
-        <v>67000</v>
+        <v>66400</v>
       </c>
       <c r="J66" s="3">
-        <v>54000</v>
+        <v>53500</v>
       </c>
       <c r="K66" s="3">
         <v>53000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-145200</v>
+        <v>-143800</v>
       </c>
       <c r="E72" s="3">
-        <v>-74700</v>
+        <v>-74000</v>
       </c>
       <c r="F72" s="3">
-        <v>-60000</v>
+        <v>-59400</v>
       </c>
       <c r="G72" s="3">
-        <v>-54200</v>
+        <v>-53700</v>
       </c>
       <c r="H72" s="3">
-        <v>-59500</v>
+        <v>-58900</v>
       </c>
       <c r="I72" s="3">
-        <v>-41700</v>
+        <v>-41400</v>
       </c>
       <c r="J72" s="3">
-        <v>-51200</v>
+        <v>-50800</v>
       </c>
       <c r="K72" s="3">
         <v>-72200</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>88400</v>
+        <v>87600</v>
       </c>
       <c r="E76" s="3">
-        <v>152000</v>
+        <v>150600</v>
       </c>
       <c r="F76" s="3">
-        <v>163000</v>
+        <v>161500</v>
       </c>
       <c r="G76" s="3">
-        <v>161100</v>
+        <v>159600</v>
       </c>
       <c r="H76" s="3">
-        <v>219400</v>
+        <v>217400</v>
       </c>
       <c r="I76" s="3">
-        <v>237400</v>
+        <v>235200</v>
       </c>
       <c r="J76" s="3">
-        <v>222800</v>
+        <v>220800</v>
       </c>
       <c r="K76" s="3">
         <v>122000</v>
@@ -2663,10 +2663,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-70000</v>
+        <v>-69400</v>
       </c>
       <c r="E81" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="F81" s="3">
         <v>-5700</v>
@@ -2675,13 +2675,13 @@
         <v>7200</v>
       </c>
       <c r="H81" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="I81" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J81" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="K81" s="3">
         <v>7600</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18900</v>
+        <v>18800</v>
       </c>
       <c r="E83" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="F83" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="G83" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="H83" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="I83" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="J83" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="K83" s="3">
         <v>12600</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-40700</v>
+        <v>-40300</v>
       </c>
       <c r="E89" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="F89" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
       <c r="G89" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="H89" s="3">
-        <v>38000</v>
+        <v>37600</v>
       </c>
       <c r="I89" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="J89" s="3">
-        <v>39500</v>
+        <v>39200</v>
       </c>
       <c r="K89" s="3">
         <v>17600</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16000</v>
+        <v>-15900</v>
       </c>
       <c r="E91" s="3">
-        <v>-21600</v>
+        <v>-21400</v>
       </c>
       <c r="F91" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="G91" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="H91" s="3">
-        <v>-24300</v>
+        <v>-24100</v>
       </c>
       <c r="I91" s="3">
-        <v>-25000</v>
+        <v>-24800</v>
       </c>
       <c r="J91" s="3">
-        <v>-23900</v>
+        <v>-23700</v>
       </c>
       <c r="K91" s="3">
         <v>-13800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18400</v>
+        <v>-18300</v>
       </c>
       <c r="E94" s="3">
-        <v>-25300</v>
+        <v>-25100</v>
       </c>
       <c r="F94" s="3">
-        <v>-19800</v>
+        <v>-19600</v>
       </c>
       <c r="G94" s="3">
-        <v>-17600</v>
+        <v>-17400</v>
       </c>
       <c r="H94" s="3">
-        <v>-37900</v>
+        <v>-37600</v>
       </c>
       <c r="I94" s="3">
-        <v>-36300</v>
+        <v>-36000</v>
       </c>
       <c r="J94" s="3">
-        <v>-33600</v>
+        <v>-33300</v>
       </c>
       <c r="K94" s="3">
         <v>-19800</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>81500</v>
+        <v>80700</v>
       </c>
       <c r="E100" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="F100" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="G100" s="3">
         <v>-4000</v>
       </c>
       <c r="H100" s="3">
-        <v>-16100</v>
+        <v>-16000</v>
       </c>
       <c r="I100" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="J100" s="3">
-        <v>58200</v>
+        <v>57700</v>
       </c>
       <c r="K100" s="3">
         <v>9200</v>
@@ -3227,7 +3227,7 @@
         <v>-4700</v>
       </c>
       <c r="H101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="I101" s="3">
         <v>-600</v>
@@ -3245,7 +3245,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="E102" s="3">
         <v>-1700</v>
@@ -3254,16 +3254,16 @@
         <v>-8100</v>
       </c>
       <c r="G102" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="H102" s="3">
-        <v>-18100</v>
+        <v>-18000</v>
       </c>
       <c r="I102" s="3">
         <v>2800</v>
       </c>
       <c r="J102" s="3">
-        <v>67300</v>
+        <v>66600</v>
       </c>
       <c r="K102" s="3">
         <v>7000</v>

--- a/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>190700</v>
+        <v>196600</v>
       </c>
       <c r="E8" s="3">
-        <v>221700</v>
+        <v>228400</v>
       </c>
       <c r="F8" s="3">
-        <v>320200</v>
+        <v>329900</v>
       </c>
       <c r="G8" s="3">
-        <v>355000</v>
+        <v>365800</v>
       </c>
       <c r="H8" s="3">
-        <v>379200</v>
+        <v>390800</v>
       </c>
       <c r="I8" s="3">
-        <v>345100</v>
+        <v>355600</v>
       </c>
       <c r="J8" s="3">
-        <v>305800</v>
+        <v>315100</v>
       </c>
       <c r="K8" s="3">
         <v>238600</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>160400</v>
+        <v>165300</v>
       </c>
       <c r="E9" s="3">
-        <v>152800</v>
+        <v>157500</v>
       </c>
       <c r="F9" s="3">
-        <v>208500</v>
+        <v>214800</v>
       </c>
       <c r="G9" s="3">
-        <v>484000</v>
+        <v>498800</v>
       </c>
       <c r="H9" s="3">
-        <v>220800</v>
+        <v>227600</v>
       </c>
       <c r="I9" s="3">
-        <v>194800</v>
+        <v>200800</v>
       </c>
       <c r="J9" s="3">
-        <v>174700</v>
+        <v>180000</v>
       </c>
       <c r="K9" s="3">
         <v>139200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30300</v>
+        <v>31200</v>
       </c>
       <c r="E10" s="3">
-        <v>68900</v>
+        <v>71000</v>
       </c>
       <c r="F10" s="3">
-        <v>111700</v>
+        <v>115100</v>
       </c>
       <c r="G10" s="3">
-        <v>-129000</v>
+        <v>-133000</v>
       </c>
       <c r="H10" s="3">
-        <v>158400</v>
+        <v>163200</v>
       </c>
       <c r="I10" s="3">
-        <v>150300</v>
+        <v>154900</v>
       </c>
       <c r="J10" s="3">
-        <v>131100</v>
+        <v>135100</v>
       </c>
       <c r="K10" s="3">
         <v>99400</v>
@@ -818,16 +818,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="E12" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="F12" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="G12" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -878,16 +878,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-12900</v>
+        <v>-13300</v>
       </c>
       <c r="E14" s="3">
-        <v>-16400</v>
+        <v>-16900</v>
       </c>
       <c r="F14" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="G14" s="3">
-        <v>46600</v>
+        <v>48000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>256000</v>
+        <v>263800</v>
       </c>
       <c r="E17" s="3">
-        <v>232700</v>
+        <v>239800</v>
       </c>
       <c r="F17" s="3">
-        <v>323300</v>
+        <v>333200</v>
       </c>
       <c r="G17" s="3">
-        <v>347600</v>
+        <v>358200</v>
       </c>
       <c r="H17" s="3">
-        <v>386700</v>
+        <v>398500</v>
       </c>
       <c r="I17" s="3">
-        <v>328700</v>
+        <v>338700</v>
       </c>
       <c r="J17" s="3">
-        <v>284800</v>
+        <v>293500</v>
       </c>
       <c r="K17" s="3">
         <v>229300</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-65200</v>
+        <v>-67200</v>
       </c>
       <c r="E18" s="3">
-        <v>-11100</v>
+        <v>-11400</v>
       </c>
       <c r="F18" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="G18" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="H18" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="I18" s="3">
-        <v>16400</v>
+        <v>16900</v>
       </c>
       <c r="J18" s="3">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="K18" s="3">
         <v>9300</v>
@@ -1026,13 +1026,13 @@
         <v>-300</v>
       </c>
       <c r="E20" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G20" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H20" s="3">
         <v>700</v>
@@ -1041,7 +1041,7 @@
         <v>-300</v>
       </c>
       <c r="J20" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K20" s="3">
         <v>-900</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-46800</v>
+        <v>-47900</v>
       </c>
       <c r="E21" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="F21" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="G21" s="3">
-        <v>29800</v>
+        <v>31000</v>
       </c>
       <c r="H21" s="3">
-        <v>16400</v>
+        <v>17200</v>
       </c>
       <c r="I21" s="3">
-        <v>36200</v>
+        <v>37600</v>
       </c>
       <c r="J21" s="3">
-        <v>39800</v>
+        <v>41200</v>
       </c>
       <c r="K21" s="3">
         <v>21000</v>
@@ -1083,7 +1083,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -1098,7 +1098,7 @@
         <v>800</v>
       </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-69600</v>
+        <v>-71700</v>
       </c>
       <c r="E23" s="3">
-        <v>-11900</v>
+        <v>-12200</v>
       </c>
       <c r="F23" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="G23" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="H23" s="3">
-        <v>-7600</v>
+        <v>-7900</v>
       </c>
       <c r="I23" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="J23" s="3">
-        <v>23500</v>
+        <v>24200</v>
       </c>
       <c r="K23" s="3">
         <v>8400</v>
@@ -1146,19 +1146,19 @@
         <v>-300</v>
       </c>
       <c r="E24" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F24" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G24" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H24" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I24" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-69400</v>
+        <v>-71500</v>
       </c>
       <c r="E26" s="3">
-        <v>-14600</v>
+        <v>-15000</v>
       </c>
       <c r="F26" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="G26" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H26" s="3">
-        <v>-9600</v>
+        <v>-9900</v>
       </c>
       <c r="I26" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="J26" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="K26" s="3">
         <v>7600</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-69400</v>
+        <v>-71500</v>
       </c>
       <c r="E27" s="3">
-        <v>-14600</v>
+        <v>-15000</v>
       </c>
       <c r="F27" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="G27" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H27" s="3">
-        <v>-9600</v>
+        <v>-9900</v>
       </c>
       <c r="I27" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="J27" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="K27" s="3">
         <v>7600</v>
@@ -1386,13 +1386,13 @@
         <v>300</v>
       </c>
       <c r="E32" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F32" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G32" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="H32" s="3">
         <v>-700</v>
@@ -1401,7 +1401,7 @@
         <v>300</v>
       </c>
       <c r="J32" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="K32" s="3">
         <v>900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-69400</v>
+        <v>-71500</v>
       </c>
       <c r="E33" s="3">
-        <v>-14600</v>
+        <v>-15000</v>
       </c>
       <c r="F33" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="G33" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H33" s="3">
-        <v>-9600</v>
+        <v>-9900</v>
       </c>
       <c r="I33" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="J33" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="K33" s="3">
         <v>7600</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-69400</v>
+        <v>-71500</v>
       </c>
       <c r="E35" s="3">
-        <v>-14600</v>
+        <v>-15000</v>
       </c>
       <c r="F35" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="G35" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H35" s="3">
-        <v>-9600</v>
+        <v>-9900</v>
       </c>
       <c r="I35" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="J35" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="K35" s="3">
         <v>7600</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>77900</v>
+        <v>80300</v>
       </c>
       <c r="E41" s="3">
-        <v>59300</v>
+        <v>61100</v>
       </c>
       <c r="F41" s="3">
-        <v>61000</v>
+        <v>62800</v>
       </c>
       <c r="G41" s="3">
-        <v>163200</v>
+        <v>168200</v>
       </c>
       <c r="H41" s="3">
-        <v>41900</v>
+        <v>43200</v>
       </c>
       <c r="I41" s="3">
-        <v>27600</v>
+        <v>28500</v>
       </c>
       <c r="J41" s="3">
-        <v>15400</v>
+        <v>15900</v>
       </c>
       <c r="K41" s="3">
         <v>17800</v>
@@ -1608,13 +1608,13 @@
         <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>61000</v>
+        <v>62900</v>
       </c>
       <c r="I42" s="3">
-        <v>93300</v>
+        <v>96100</v>
       </c>
       <c r="J42" s="3">
-        <v>102700</v>
+        <v>105800</v>
       </c>
       <c r="K42" s="3">
         <v>32900</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22700</v>
+        <v>23400</v>
       </c>
       <c r="E43" s="3">
-        <v>24500</v>
+        <v>25200</v>
       </c>
       <c r="F43" s="3">
-        <v>32200</v>
+        <v>33200</v>
       </c>
       <c r="G43" s="3">
-        <v>134200</v>
+        <v>138300</v>
       </c>
       <c r="H43" s="3">
-        <v>31200</v>
+        <v>32100</v>
       </c>
       <c r="I43" s="3">
-        <v>41500</v>
+        <v>42700</v>
       </c>
       <c r="J43" s="3">
-        <v>30500</v>
+        <v>31400</v>
       </c>
       <c r="K43" s="3">
         <v>36200</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23900</v>
+        <v>24600</v>
       </c>
       <c r="E44" s="3">
-        <v>20600</v>
+        <v>21300</v>
       </c>
       <c r="F44" s="3">
-        <v>22700</v>
+        <v>23400</v>
       </c>
       <c r="G44" s="3">
-        <v>57000</v>
+        <v>58700</v>
       </c>
       <c r="H44" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="I44" s="3">
-        <v>27700</v>
+        <v>28500</v>
       </c>
       <c r="J44" s="3">
-        <v>27900</v>
+        <v>28800</v>
       </c>
       <c r="K44" s="3">
         <v>19200</v>
@@ -1686,19 +1686,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="E45" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F45" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G45" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H45" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I45" s="3">
         <v>2700</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>134200</v>
+        <v>138200</v>
       </c>
       <c r="E46" s="3">
-        <v>109700</v>
+        <v>113000</v>
       </c>
       <c r="F46" s="3">
-        <v>120200</v>
+        <v>123900</v>
       </c>
       <c r="G46" s="3">
-        <v>152700</v>
+        <v>157400</v>
       </c>
       <c r="H46" s="3">
-        <v>168800</v>
+        <v>174000</v>
       </c>
       <c r="I46" s="3">
-        <v>192700</v>
+        <v>198600</v>
       </c>
       <c r="J46" s="3">
-        <v>178600</v>
+        <v>184100</v>
       </c>
       <c r="K46" s="3">
         <v>108500</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>106700</v>
+        <v>110000</v>
       </c>
       <c r="E48" s="3">
-        <v>107900</v>
+        <v>111200</v>
       </c>
       <c r="F48" s="3">
-        <v>80200</v>
+        <v>82600</v>
       </c>
       <c r="G48" s="3">
-        <v>112200</v>
+        <v>115600</v>
       </c>
       <c r="H48" s="3">
-        <v>78700</v>
+        <v>81100</v>
       </c>
       <c r="I48" s="3">
-        <v>71900</v>
+        <v>74100</v>
       </c>
       <c r="J48" s="3">
-        <v>62300</v>
+        <v>64200</v>
       </c>
       <c r="K48" s="3">
         <v>45400</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="E49" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="F49" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="G49" s="3">
-        <v>37000</v>
+        <v>38100</v>
       </c>
       <c r="H49" s="3">
-        <v>34300</v>
+        <v>35400</v>
       </c>
       <c r="I49" s="3">
-        <v>28200</v>
+        <v>29000</v>
       </c>
       <c r="J49" s="3">
-        <v>22100</v>
+        <v>22700</v>
       </c>
       <c r="K49" s="3">
         <v>17000</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="E52" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="F52" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="G52" s="3">
-        <v>14700</v>
+        <v>15100</v>
       </c>
       <c r="H52" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="I52" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="J52" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="K52" s="3">
         <v>3500</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>257800</v>
+        <v>265600</v>
       </c>
       <c r="E54" s="3">
-        <v>236700</v>
+        <v>243900</v>
       </c>
       <c r="F54" s="3">
-        <v>226900</v>
+        <v>233800</v>
       </c>
       <c r="G54" s="3">
-        <v>227300</v>
+        <v>234300</v>
       </c>
       <c r="H54" s="3">
-        <v>294200</v>
+        <v>303200</v>
       </c>
       <c r="I54" s="3">
-        <v>301600</v>
+        <v>310700</v>
       </c>
       <c r="J54" s="3">
-        <v>274300</v>
+        <v>282700</v>
       </c>
       <c r="K54" s="3">
         <v>175100</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="E57" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="F57" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="G57" s="3">
-        <v>58500</v>
+        <v>60300</v>
       </c>
       <c r="H57" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="I57" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="J57" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="K57" s="3">
         <v>14700</v>
@@ -2044,7 +2044,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="E58" s="3">
         <v>1200</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H58" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="I58" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="J58" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="K58" s="3">
         <v>4500</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>27900</v>
+        <v>28800</v>
       </c>
       <c r="E59" s="3">
-        <v>30900</v>
+        <v>31900</v>
       </c>
       <c r="F59" s="3">
-        <v>33300</v>
+        <v>34300</v>
       </c>
       <c r="G59" s="3">
-        <v>79200</v>
+        <v>81600</v>
       </c>
       <c r="H59" s="3">
-        <v>43000</v>
+        <v>44300</v>
       </c>
       <c r="I59" s="3">
-        <v>28700</v>
+        <v>29600</v>
       </c>
       <c r="J59" s="3">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="K59" s="3">
         <v>25100</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47900</v>
+        <v>49400</v>
       </c>
       <c r="E60" s="3">
-        <v>40500</v>
+        <v>41800</v>
       </c>
       <c r="F60" s="3">
-        <v>44500</v>
+        <v>45800</v>
       </c>
       <c r="G60" s="3">
-        <v>62400</v>
+        <v>64300</v>
       </c>
       <c r="H60" s="3">
-        <v>66100</v>
+        <v>68100</v>
       </c>
       <c r="I60" s="3">
-        <v>47200</v>
+        <v>48600</v>
       </c>
       <c r="J60" s="3">
-        <v>44400</v>
+        <v>45800</v>
       </c>
       <c r="K60" s="3">
         <v>44300</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>87000</v>
+        <v>89700</v>
       </c>
       <c r="E61" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="H61" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="I61" s="3">
-        <v>17700</v>
+        <v>18200</v>
       </c>
       <c r="J61" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="K61" s="3">
         <v>8100</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35200</v>
+        <v>36300</v>
       </c>
       <c r="E62" s="3">
-        <v>39000</v>
+        <v>40200</v>
       </c>
       <c r="F62" s="3">
-        <v>20800</v>
+        <v>21500</v>
       </c>
       <c r="G62" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
-        <v>1500</v>
-      </c>
       <c r="J62" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K62" s="3">
         <v>700</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>170200</v>
+        <v>175400</v>
       </c>
       <c r="E66" s="3">
-        <v>86100</v>
+        <v>88700</v>
       </c>
       <c r="F66" s="3">
-        <v>65400</v>
+        <v>67400</v>
       </c>
       <c r="G66" s="3">
-        <v>67700</v>
+        <v>69800</v>
       </c>
       <c r="H66" s="3">
-        <v>76800</v>
+        <v>79200</v>
       </c>
       <c r="I66" s="3">
-        <v>66400</v>
+        <v>68400</v>
       </c>
       <c r="J66" s="3">
-        <v>53500</v>
+        <v>55200</v>
       </c>
       <c r="K66" s="3">
         <v>53000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-143800</v>
+        <v>-148200</v>
       </c>
       <c r="E72" s="3">
-        <v>-74000</v>
+        <v>-76300</v>
       </c>
       <c r="F72" s="3">
-        <v>-59400</v>
+        <v>-61200</v>
       </c>
       <c r="G72" s="3">
-        <v>-53700</v>
+        <v>-55400</v>
       </c>
       <c r="H72" s="3">
-        <v>-58900</v>
+        <v>-60700</v>
       </c>
       <c r="I72" s="3">
-        <v>-41400</v>
+        <v>-42600</v>
       </c>
       <c r="J72" s="3">
-        <v>-50800</v>
+        <v>-52300</v>
       </c>
       <c r="K72" s="3">
         <v>-72200</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>87600</v>
+        <v>90300</v>
       </c>
       <c r="E76" s="3">
-        <v>150600</v>
+        <v>155200</v>
       </c>
       <c r="F76" s="3">
-        <v>161500</v>
+        <v>166500</v>
       </c>
       <c r="G76" s="3">
-        <v>159600</v>
+        <v>164500</v>
       </c>
       <c r="H76" s="3">
-        <v>217400</v>
+        <v>224000</v>
       </c>
       <c r="I76" s="3">
-        <v>235200</v>
+        <v>242300</v>
       </c>
       <c r="J76" s="3">
-        <v>220800</v>
+        <v>227500</v>
       </c>
       <c r="K76" s="3">
         <v>122000</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-69400</v>
+        <v>-71500</v>
       </c>
       <c r="E81" s="3">
-        <v>-14600</v>
+        <v>-15000</v>
       </c>
       <c r="F81" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="G81" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H81" s="3">
-        <v>-9600</v>
+        <v>-9900</v>
       </c>
       <c r="I81" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="J81" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="K81" s="3">
         <v>7600</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18800</v>
+        <v>19300</v>
       </c>
       <c r="E83" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="F83" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="G83" s="3">
-        <v>17700</v>
+        <v>18200</v>
       </c>
       <c r="H83" s="3">
-        <v>23200</v>
+        <v>23900</v>
       </c>
       <c r="I83" s="3">
-        <v>20000</v>
+        <v>20600</v>
       </c>
       <c r="J83" s="3">
-        <v>16200</v>
+        <v>16700</v>
       </c>
       <c r="K83" s="3">
         <v>12600</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-40300</v>
+        <v>-41600</v>
       </c>
       <c r="E89" s="3">
-        <v>16100</v>
+        <v>16600</v>
       </c>
       <c r="F89" s="3">
-        <v>17300</v>
+        <v>17800</v>
       </c>
       <c r="G89" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="H89" s="3">
-        <v>37600</v>
+        <v>38800</v>
       </c>
       <c r="I89" s="3">
-        <v>26100</v>
+        <v>26800</v>
       </c>
       <c r="J89" s="3">
-        <v>39200</v>
+        <v>40400</v>
       </c>
       <c r="K89" s="3">
         <v>17600</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15900</v>
+        <v>-16400</v>
       </c>
       <c r="E91" s="3">
-        <v>-21400</v>
+        <v>-22100</v>
       </c>
       <c r="F91" s="3">
-        <v>-16400</v>
+        <v>-16900</v>
       </c>
       <c r="G91" s="3">
-        <v>-11200</v>
+        <v>-11500</v>
       </c>
       <c r="H91" s="3">
-        <v>-24100</v>
+        <v>-24800</v>
       </c>
       <c r="I91" s="3">
-        <v>-24800</v>
+        <v>-25500</v>
       </c>
       <c r="J91" s="3">
-        <v>-23700</v>
+        <v>-24400</v>
       </c>
       <c r="K91" s="3">
         <v>-13800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18300</v>
+        <v>-18800</v>
       </c>
       <c r="E94" s="3">
-        <v>-25100</v>
+        <v>-25800</v>
       </c>
       <c r="F94" s="3">
-        <v>-19600</v>
+        <v>-20200</v>
       </c>
       <c r="G94" s="3">
-        <v>-17400</v>
+        <v>-17900</v>
       </c>
       <c r="H94" s="3">
-        <v>-37600</v>
+        <v>-38700</v>
       </c>
       <c r="I94" s="3">
-        <v>-36000</v>
+        <v>-37100</v>
       </c>
       <c r="J94" s="3">
-        <v>-33300</v>
+        <v>-34300</v>
       </c>
       <c r="K94" s="3">
         <v>-19800</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>80700</v>
+        <v>83200</v>
       </c>
       <c r="E100" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F100" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="G100" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="H100" s="3">
-        <v>-16000</v>
+        <v>-16500</v>
       </c>
       <c r="I100" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="J100" s="3">
-        <v>57700</v>
+        <v>59400</v>
       </c>
       <c r="K100" s="3">
         <v>9200</v>
@@ -3224,16 +3224,16 @@
         <v>1400</v>
       </c>
       <c r="G101" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="H101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I101" s="3">
         <v>-600</v>
       </c>
       <c r="J101" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22700</v>
+        <v>23400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F102" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="G102" s="3">
-        <v>-13000</v>
+        <v>-13400</v>
       </c>
       <c r="H102" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="I102" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J102" s="3">
-        <v>66600</v>
+        <v>68700</v>
       </c>
       <c r="K102" s="3">
         <v>7000</v>

--- a/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>DRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>196600</v>
+        <v>238000</v>
       </c>
       <c r="E8" s="3">
-        <v>228400</v>
+        <v>204100</v>
       </c>
       <c r="F8" s="3">
-        <v>329900</v>
+        <v>237100</v>
       </c>
       <c r="G8" s="3">
-        <v>365800</v>
+        <v>342500</v>
       </c>
       <c r="H8" s="3">
-        <v>390800</v>
+        <v>379800</v>
       </c>
       <c r="I8" s="3">
-        <v>355600</v>
+        <v>405700</v>
       </c>
       <c r="J8" s="3">
+        <v>369200</v>
+      </c>
+      <c r="K8" s="3">
         <v>315100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>238600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>165300</v>
+        <v>199100</v>
       </c>
       <c r="E9" s="3">
-        <v>157500</v>
+        <v>171600</v>
       </c>
       <c r="F9" s="3">
-        <v>214800</v>
+        <v>163500</v>
       </c>
       <c r="G9" s="3">
-        <v>498800</v>
+        <v>223000</v>
       </c>
       <c r="H9" s="3">
-        <v>227600</v>
+        <v>517900</v>
       </c>
       <c r="I9" s="3">
-        <v>200800</v>
+        <v>236300</v>
       </c>
       <c r="J9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="K9" s="3">
         <v>180000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>139200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31200</v>
+        <v>38900</v>
       </c>
       <c r="E10" s="3">
-        <v>71000</v>
+        <v>32400</v>
       </c>
       <c r="F10" s="3">
-        <v>115100</v>
+        <v>73700</v>
       </c>
       <c r="G10" s="3">
-        <v>-133000</v>
+        <v>119500</v>
       </c>
       <c r="H10" s="3">
-        <v>163200</v>
+        <v>-138100</v>
       </c>
       <c r="I10" s="3">
-        <v>154900</v>
+        <v>169400</v>
       </c>
       <c r="J10" s="3">
+        <v>160800</v>
+      </c>
+      <c r="K10" s="3">
         <v>135100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>99400</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,25 +824,26 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="E12" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G12" s="3">
         <v>10800</v>
       </c>
-      <c r="F12" s="3">
-        <v>10400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5600</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
+      <c r="H12" s="3">
+        <v>5800</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,26 +887,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-13300</v>
+        <v>7900</v>
       </c>
       <c r="E14" s="3">
-        <v>-16900</v>
+        <v>-13800</v>
       </c>
       <c r="F14" s="3">
-        <v>6100</v>
+        <v>-17600</v>
       </c>
       <c r="G14" s="3">
-        <v>48000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>6300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>49800</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -898,12 +917,15 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>263800</v>
+        <v>308900</v>
       </c>
       <c r="E17" s="3">
-        <v>239800</v>
+        <v>273900</v>
       </c>
       <c r="F17" s="3">
-        <v>333200</v>
+        <v>249000</v>
       </c>
       <c r="G17" s="3">
-        <v>358200</v>
+        <v>345900</v>
       </c>
       <c r="H17" s="3">
-        <v>398500</v>
+        <v>371900</v>
       </c>
       <c r="I17" s="3">
-        <v>338700</v>
+        <v>413700</v>
       </c>
       <c r="J17" s="3">
+        <v>351700</v>
+      </c>
+      <c r="K17" s="3">
         <v>293500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>229300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-67200</v>
+        <v>-70900</v>
       </c>
       <c r="E18" s="3">
-        <v>-11400</v>
+        <v>-69800</v>
       </c>
       <c r="F18" s="3">
-        <v>-3300</v>
+        <v>-11800</v>
       </c>
       <c r="G18" s="3">
-        <v>7600</v>
+        <v>-3400</v>
       </c>
       <c r="H18" s="3">
-        <v>-7700</v>
+        <v>7900</v>
       </c>
       <c r="I18" s="3">
-        <v>16900</v>
+        <v>-8000</v>
       </c>
       <c r="J18" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K18" s="3">
         <v>21600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-47900</v>
+        <v>-48000</v>
       </c>
       <c r="E21" s="3">
-        <v>4000</v>
+        <v>-50100</v>
       </c>
       <c r="F21" s="3">
-        <v>12200</v>
+        <v>3900</v>
       </c>
       <c r="G21" s="3">
-        <v>31000</v>
+        <v>12400</v>
       </c>
       <c r="H21" s="3">
-        <v>17200</v>
+        <v>31800</v>
       </c>
       <c r="I21" s="3">
-        <v>37600</v>
+        <v>17400</v>
       </c>
       <c r="J21" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K21" s="3">
         <v>41200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4200</v>
+        <v>7100</v>
       </c>
       <c r="E22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-71700</v>
+        <v>-76000</v>
       </c>
       <c r="E23" s="3">
-        <v>-12200</v>
+        <v>-74500</v>
       </c>
       <c r="F23" s="3">
-        <v>-4500</v>
+        <v>-12700</v>
       </c>
       <c r="G23" s="3">
-        <v>11800</v>
+        <v>-4700</v>
       </c>
       <c r="H23" s="3">
-        <v>-7900</v>
+        <v>12200</v>
       </c>
       <c r="I23" s="3">
-        <v>16200</v>
+        <v>-8200</v>
       </c>
       <c r="J23" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K23" s="3">
         <v>24200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
-        <v>2800</v>
-      </c>
       <c r="F24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
-        <v>4400</v>
-      </c>
       <c r="H24" s="3">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="I24" s="3">
-        <v>6500</v>
+        <v>2100</v>
       </c>
       <c r="J24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-71500</v>
+        <v>-76000</v>
       </c>
       <c r="E26" s="3">
-        <v>-15000</v>
+        <v>-74200</v>
       </c>
       <c r="F26" s="3">
-        <v>-5900</v>
+        <v>-15600</v>
       </c>
       <c r="G26" s="3">
-        <v>7400</v>
+        <v>-6100</v>
       </c>
       <c r="H26" s="3">
-        <v>-9900</v>
+        <v>7700</v>
       </c>
       <c r="I26" s="3">
-        <v>9700</v>
+        <v>-10200</v>
       </c>
       <c r="J26" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K26" s="3">
         <v>23800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7600</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-71500</v>
+        <v>-76000</v>
       </c>
       <c r="E27" s="3">
-        <v>-15000</v>
+        <v>-74200</v>
       </c>
       <c r="F27" s="3">
-        <v>-5900</v>
+        <v>-15600</v>
       </c>
       <c r="G27" s="3">
-        <v>7400</v>
+        <v>-6100</v>
       </c>
       <c r="H27" s="3">
-        <v>-9900</v>
+        <v>7700</v>
       </c>
       <c r="I27" s="3">
-        <v>9700</v>
+        <v>-10200</v>
       </c>
       <c r="J27" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K27" s="3">
         <v>23800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7600</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>300</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-71500</v>
+        <v>-76000</v>
       </c>
       <c r="E33" s="3">
-        <v>-15000</v>
+        <v>-74200</v>
       </c>
       <c r="F33" s="3">
-        <v>-5900</v>
+        <v>-15600</v>
       </c>
       <c r="G33" s="3">
-        <v>7400</v>
+        <v>-6100</v>
       </c>
       <c r="H33" s="3">
-        <v>-9900</v>
+        <v>7700</v>
       </c>
       <c r="I33" s="3">
-        <v>9700</v>
+        <v>-10200</v>
       </c>
       <c r="J33" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K33" s="3">
         <v>23800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7600</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-71500</v>
+        <v>-76000</v>
       </c>
       <c r="E35" s="3">
-        <v>-15000</v>
+        <v>-74200</v>
       </c>
       <c r="F35" s="3">
-        <v>-5900</v>
+        <v>-15600</v>
       </c>
       <c r="G35" s="3">
-        <v>7400</v>
+        <v>-6100</v>
       </c>
       <c r="H35" s="3">
-        <v>-9900</v>
+        <v>7700</v>
       </c>
       <c r="I35" s="3">
-        <v>9700</v>
+        <v>-10200</v>
       </c>
       <c r="J35" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K35" s="3">
         <v>23800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7600</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>80300</v>
+        <v>15000</v>
       </c>
       <c r="E41" s="3">
-        <v>61100</v>
+        <v>83400</v>
       </c>
       <c r="F41" s="3">
-        <v>62800</v>
+        <v>63400</v>
       </c>
       <c r="G41" s="3">
-        <v>168200</v>
+        <v>65200</v>
       </c>
       <c r="H41" s="3">
-        <v>43200</v>
+        <v>174600</v>
       </c>
       <c r="I41" s="3">
-        <v>28500</v>
+        <v>44800</v>
       </c>
       <c r="J41" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K41" s="3">
         <v>15900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1607,81 +1696,90 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>62900</v>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>96100</v>
+        <v>65300</v>
       </c>
       <c r="J42" s="3">
+        <v>99800</v>
+      </c>
+      <c r="K42" s="3">
         <v>105800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32900</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23400</v>
+        <v>30200</v>
       </c>
       <c r="E43" s="3">
-        <v>25200</v>
+        <v>24300</v>
       </c>
       <c r="F43" s="3">
-        <v>33200</v>
+        <v>26200</v>
       </c>
       <c r="G43" s="3">
-        <v>138300</v>
+        <v>34500</v>
       </c>
       <c r="H43" s="3">
-        <v>32100</v>
+        <v>143600</v>
       </c>
       <c r="I43" s="3">
-        <v>42700</v>
+        <v>33400</v>
       </c>
       <c r="J43" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K43" s="3">
         <v>31400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24600</v>
+        <v>30800</v>
       </c>
       <c r="E44" s="3">
-        <v>21300</v>
+        <v>25500</v>
       </c>
       <c r="F44" s="3">
-        <v>23400</v>
+        <v>22100</v>
       </c>
       <c r="G44" s="3">
-        <v>58700</v>
+        <v>24300</v>
       </c>
       <c r="H44" s="3">
-        <v>32400</v>
+        <v>61000</v>
       </c>
       <c r="I44" s="3">
-        <v>28500</v>
+        <v>33600</v>
       </c>
       <c r="J44" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K44" s="3">
         <v>28800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>19200</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1689,149 +1787,164 @@
         <v>10000</v>
       </c>
       <c r="E45" s="3">
-        <v>5400</v>
+        <v>10400</v>
       </c>
       <c r="F45" s="3">
-        <v>4400</v>
+        <v>5600</v>
       </c>
       <c r="G45" s="3">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="H45" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="I45" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="J45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>138200</v>
+        <v>85900</v>
       </c>
       <c r="E46" s="3">
-        <v>113000</v>
+        <v>143500</v>
       </c>
       <c r="F46" s="3">
-        <v>123900</v>
+        <v>117300</v>
       </c>
       <c r="G46" s="3">
-        <v>157400</v>
+        <v>128600</v>
       </c>
       <c r="H46" s="3">
-        <v>174000</v>
+        <v>163400</v>
       </c>
       <c r="I46" s="3">
-        <v>198600</v>
+        <v>180600</v>
       </c>
       <c r="J46" s="3">
+        <v>206200</v>
+      </c>
+      <c r="K46" s="3">
         <v>184100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>108500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>600</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>110000</v>
+        <v>99600</v>
       </c>
       <c r="E48" s="3">
-        <v>111200</v>
+        <v>114200</v>
       </c>
       <c r="F48" s="3">
-        <v>82600</v>
+        <v>115400</v>
       </c>
       <c r="G48" s="3">
-        <v>115600</v>
+        <v>85800</v>
       </c>
       <c r="H48" s="3">
-        <v>81100</v>
+        <v>120100</v>
       </c>
       <c r="I48" s="3">
-        <v>74100</v>
+        <v>84200</v>
       </c>
       <c r="J48" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K48" s="3">
         <v>64200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9800</v>
+        <v>6100</v>
       </c>
       <c r="E49" s="3">
-        <v>13000</v>
+        <v>10200</v>
       </c>
       <c r="F49" s="3">
-        <v>12800</v>
+        <v>13500</v>
       </c>
       <c r="G49" s="3">
-        <v>38100</v>
+        <v>13300</v>
       </c>
       <c r="H49" s="3">
-        <v>35400</v>
+        <v>39600</v>
       </c>
       <c r="I49" s="3">
-        <v>29000</v>
+        <v>36700</v>
       </c>
       <c r="J49" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K49" s="3">
         <v>22700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="E52" s="3">
-        <v>6700</v>
+        <v>7800</v>
       </c>
       <c r="F52" s="3">
-        <v>14500</v>
+        <v>6900</v>
       </c>
       <c r="G52" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="H52" s="3">
-        <v>12800</v>
+        <v>15700</v>
       </c>
       <c r="I52" s="3">
-        <v>9100</v>
+        <v>13300</v>
       </c>
       <c r="J52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K52" s="3">
         <v>11000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3500</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>265600</v>
+        <v>198600</v>
       </c>
       <c r="E54" s="3">
-        <v>243900</v>
+        <v>275800</v>
       </c>
       <c r="F54" s="3">
-        <v>233800</v>
+        <v>253200</v>
       </c>
       <c r="G54" s="3">
-        <v>234300</v>
+        <v>242800</v>
       </c>
       <c r="H54" s="3">
-        <v>303200</v>
+        <v>243200</v>
       </c>
       <c r="I54" s="3">
-        <v>310700</v>
+        <v>314800</v>
       </c>
       <c r="J54" s="3">
+        <v>322600</v>
+      </c>
+      <c r="K54" s="3">
         <v>282700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>175100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11800</v>
+        <v>10600</v>
       </c>
       <c r="E57" s="3">
-        <v>8700</v>
+        <v>12200</v>
       </c>
       <c r="F57" s="3">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="G57" s="3">
-        <v>60300</v>
+        <v>12000</v>
       </c>
       <c r="H57" s="3">
-        <v>16200</v>
+        <v>62600</v>
       </c>
       <c r="I57" s="3">
-        <v>12300</v>
+        <v>16800</v>
       </c>
       <c r="J57" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K57" s="3">
         <v>7400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8900</v>
+        <v>4600</v>
       </c>
       <c r="E58" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>7600</v>
+        <v>4900</v>
       </c>
       <c r="I58" s="3">
-        <v>6800</v>
+        <v>7900</v>
       </c>
       <c r="J58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K58" s="3">
         <v>4900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28800</v>
+        <v>34600</v>
       </c>
       <c r="E59" s="3">
-        <v>31900</v>
+        <v>29900</v>
       </c>
       <c r="F59" s="3">
-        <v>34300</v>
+        <v>33100</v>
       </c>
       <c r="G59" s="3">
-        <v>81600</v>
+        <v>35600</v>
       </c>
       <c r="H59" s="3">
-        <v>44300</v>
+        <v>84700</v>
       </c>
       <c r="I59" s="3">
-        <v>29600</v>
+        <v>46000</v>
       </c>
       <c r="J59" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K59" s="3">
         <v>33500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49400</v>
+        <v>49800</v>
       </c>
       <c r="E60" s="3">
-        <v>41800</v>
+        <v>51300</v>
       </c>
       <c r="F60" s="3">
+        <v>43300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>47600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>66800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>70700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K60" s="3">
         <v>45800</v>
       </c>
-      <c r="G60" s="3">
-        <v>64300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>68100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>48600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>45800</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>44300</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>89700</v>
+        <v>85900</v>
       </c>
       <c r="E61" s="3">
-        <v>6800</v>
+        <v>93100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="G61" s="3">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>9400</v>
+        <v>4300</v>
       </c>
       <c r="I61" s="3">
-        <v>18200</v>
+        <v>9800</v>
       </c>
       <c r="J61" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K61" s="3">
         <v>7300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8100</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36300</v>
+        <v>38100</v>
       </c>
       <c r="E62" s="3">
-        <v>40200</v>
+        <v>37700</v>
       </c>
       <c r="F62" s="3">
-        <v>21500</v>
+        <v>41800</v>
       </c>
       <c r="G62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>175400</v>
+        <v>173800</v>
       </c>
       <c r="E66" s="3">
-        <v>88700</v>
+        <v>182100</v>
       </c>
       <c r="F66" s="3">
-        <v>67400</v>
+        <v>92100</v>
       </c>
       <c r="G66" s="3">
-        <v>69800</v>
+        <v>69900</v>
       </c>
       <c r="H66" s="3">
-        <v>79200</v>
+        <v>72400</v>
       </c>
       <c r="I66" s="3">
-        <v>68400</v>
+        <v>82200</v>
       </c>
       <c r="J66" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K66" s="3">
         <v>55200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>53000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-148200</v>
+        <v>-229900</v>
       </c>
       <c r="E72" s="3">
-        <v>-76300</v>
+        <v>-153900</v>
       </c>
       <c r="F72" s="3">
-        <v>-61200</v>
+        <v>-79200</v>
       </c>
       <c r="G72" s="3">
-        <v>-55400</v>
+        <v>-63600</v>
       </c>
       <c r="H72" s="3">
-        <v>-60700</v>
+        <v>-57500</v>
       </c>
       <c r="I72" s="3">
-        <v>-42600</v>
+        <v>-63000</v>
       </c>
       <c r="J72" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-52300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-72200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>90300</v>
+        <v>24900</v>
       </c>
       <c r="E76" s="3">
-        <v>155200</v>
+        <v>93700</v>
       </c>
       <c r="F76" s="3">
-        <v>166500</v>
+        <v>161100</v>
       </c>
       <c r="G76" s="3">
-        <v>164500</v>
+        <v>172800</v>
       </c>
       <c r="H76" s="3">
-        <v>224000</v>
+        <v>170800</v>
       </c>
       <c r="I76" s="3">
-        <v>242300</v>
+        <v>232600</v>
       </c>
       <c r="J76" s="3">
+        <v>251600</v>
+      </c>
+      <c r="K76" s="3">
         <v>227500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>122000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-71500</v>
+        <v>-76000</v>
       </c>
       <c r="E81" s="3">
-        <v>-15000</v>
+        <v>-74200</v>
       </c>
       <c r="F81" s="3">
-        <v>-5900</v>
+        <v>-15600</v>
       </c>
       <c r="G81" s="3">
-        <v>7400</v>
+        <v>-6100</v>
       </c>
       <c r="H81" s="3">
-        <v>-9900</v>
+        <v>7700</v>
       </c>
       <c r="I81" s="3">
-        <v>9700</v>
+        <v>-10200</v>
       </c>
       <c r="J81" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K81" s="3">
         <v>23800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7600</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19300</v>
+        <v>20900</v>
       </c>
       <c r="E83" s="3">
-        <v>15600</v>
+        <v>20100</v>
       </c>
       <c r="F83" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="G83" s="3">
-        <v>18200</v>
+        <v>16900</v>
       </c>
       <c r="H83" s="3">
-        <v>23900</v>
+        <v>18900</v>
       </c>
       <c r="I83" s="3">
-        <v>20600</v>
+        <v>24800</v>
       </c>
       <c r="J83" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K83" s="3">
         <v>16700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-41600</v>
+        <v>-61200</v>
       </c>
       <c r="E89" s="3">
-        <v>16600</v>
+        <v>-43200</v>
       </c>
       <c r="F89" s="3">
-        <v>17800</v>
+        <v>17300</v>
       </c>
       <c r="G89" s="3">
-        <v>13400</v>
+        <v>18500</v>
       </c>
       <c r="H89" s="3">
-        <v>38800</v>
+        <v>13900</v>
       </c>
       <c r="I89" s="3">
-        <v>26800</v>
+        <v>40200</v>
       </c>
       <c r="J89" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K89" s="3">
         <v>40400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16400</v>
+        <v>-3900</v>
       </c>
       <c r="E91" s="3">
-        <v>-22100</v>
+        <v>-17000</v>
       </c>
       <c r="F91" s="3">
-        <v>-16900</v>
+        <v>-22900</v>
       </c>
       <c r="G91" s="3">
-        <v>-11500</v>
+        <v>-17600</v>
       </c>
       <c r="H91" s="3">
-        <v>-24800</v>
+        <v>-11900</v>
       </c>
       <c r="I91" s="3">
-        <v>-25500</v>
+        <v>-25700</v>
       </c>
       <c r="J91" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18800</v>
+        <v>-5600</v>
       </c>
       <c r="E94" s="3">
-        <v>-25800</v>
+        <v>-19500</v>
       </c>
       <c r="F94" s="3">
-        <v>-20200</v>
+        <v>-26800</v>
       </c>
       <c r="G94" s="3">
-        <v>-17900</v>
+        <v>-21000</v>
       </c>
       <c r="H94" s="3">
-        <v>-38700</v>
+        <v>-18600</v>
       </c>
       <c r="I94" s="3">
-        <v>-37100</v>
+        <v>-40200</v>
       </c>
       <c r="J94" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-34300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>83200</v>
+        <v>-1200</v>
       </c>
       <c r="E100" s="3">
-        <v>7600</v>
+        <v>86400</v>
       </c>
       <c r="F100" s="3">
-        <v>-7300</v>
+        <v>7900</v>
       </c>
       <c r="G100" s="3">
-        <v>-4100</v>
+        <v>-7600</v>
       </c>
       <c r="H100" s="3">
-        <v>-16500</v>
+        <v>-4200</v>
       </c>
       <c r="I100" s="3">
-        <v>13700</v>
+        <v>-17100</v>
       </c>
       <c r="J100" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K100" s="3">
         <v>59400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>1400</v>
-      </c>
       <c r="G101" s="3">
-        <v>-4800</v>
+        <v>1500</v>
       </c>
       <c r="H101" s="3">
-        <v>-2100</v>
+        <v>-5000</v>
       </c>
       <c r="I101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3200</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23400</v>
+        <v>-68000</v>
       </c>
       <c r="E102" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
-        <v>-8300</v>
-      </c>
       <c r="G102" s="3">
-        <v>-13400</v>
+        <v>-8600</v>
       </c>
       <c r="H102" s="3">
-        <v>-18500</v>
+        <v>-13900</v>
       </c>
       <c r="I102" s="3">
-        <v>2900</v>
+        <v>-19200</v>
       </c>
       <c r="J102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K102" s="3">
         <v>68700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>238000</v>
+        <v>232400</v>
       </c>
       <c r="E8" s="3">
-        <v>204100</v>
+        <v>199300</v>
       </c>
       <c r="F8" s="3">
-        <v>237100</v>
+        <v>231500</v>
       </c>
       <c r="G8" s="3">
-        <v>342500</v>
+        <v>334400</v>
       </c>
       <c r="H8" s="3">
-        <v>379800</v>
+        <v>370800</v>
       </c>
       <c r="I8" s="3">
-        <v>405700</v>
+        <v>396100</v>
       </c>
       <c r="J8" s="3">
-        <v>369200</v>
+        <v>360500</v>
       </c>
       <c r="K8" s="3">
         <v>315100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>199100</v>
+        <v>194400</v>
       </c>
       <c r="E9" s="3">
-        <v>171600</v>
+        <v>167600</v>
       </c>
       <c r="F9" s="3">
-        <v>163500</v>
+        <v>159600</v>
       </c>
       <c r="G9" s="3">
-        <v>223000</v>
+        <v>217800</v>
       </c>
       <c r="H9" s="3">
-        <v>517900</v>
+        <v>505600</v>
       </c>
       <c r="I9" s="3">
-        <v>236300</v>
+        <v>230700</v>
       </c>
       <c r="J9" s="3">
-        <v>208500</v>
+        <v>203500</v>
       </c>
       <c r="K9" s="3">
         <v>180000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38900</v>
+        <v>38000</v>
       </c>
       <c r="E10" s="3">
-        <v>32400</v>
+        <v>31700</v>
       </c>
       <c r="F10" s="3">
-        <v>73700</v>
+        <v>71900</v>
       </c>
       <c r="G10" s="3">
-        <v>119500</v>
+        <v>116700</v>
       </c>
       <c r="H10" s="3">
-        <v>-138100</v>
+        <v>-134800</v>
       </c>
       <c r="I10" s="3">
-        <v>169400</v>
+        <v>165400</v>
       </c>
       <c r="J10" s="3">
-        <v>160800</v>
+        <v>157000</v>
       </c>
       <c r="K10" s="3">
         <v>135100</v>
@@ -831,19 +831,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="E12" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="F12" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="G12" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="H12" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="E14" s="3">
-        <v>-13800</v>
+        <v>-13500</v>
       </c>
       <c r="F14" s="3">
-        <v>-17600</v>
+        <v>-17200</v>
       </c>
       <c r="G14" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H14" s="3">
-        <v>49800</v>
+        <v>48600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>308900</v>
+        <v>301600</v>
       </c>
       <c r="E17" s="3">
-        <v>273900</v>
+        <v>267400</v>
       </c>
       <c r="F17" s="3">
-        <v>249000</v>
+        <v>243100</v>
       </c>
       <c r="G17" s="3">
-        <v>345900</v>
+        <v>337800</v>
       </c>
       <c r="H17" s="3">
-        <v>371900</v>
+        <v>363100</v>
       </c>
       <c r="I17" s="3">
-        <v>413700</v>
+        <v>404000</v>
       </c>
       <c r="J17" s="3">
-        <v>351700</v>
+        <v>343400</v>
       </c>
       <c r="K17" s="3">
         <v>293500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-70900</v>
+        <v>-69200</v>
       </c>
       <c r="E18" s="3">
-        <v>-69800</v>
+        <v>-68200</v>
       </c>
       <c r="F18" s="3">
-        <v>-11800</v>
+        <v>-11500</v>
       </c>
       <c r="G18" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="H18" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="I18" s="3">
-        <v>-8000</v>
+        <v>-7800</v>
       </c>
       <c r="J18" s="3">
-        <v>17500</v>
+        <v>17100</v>
       </c>
       <c r="K18" s="3">
         <v>21600</v>
@@ -1056,10 +1056,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>-500</v>
@@ -1068,7 +1068,7 @@
         <v>-1100</v>
       </c>
       <c r="H20" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I20" s="3">
         <v>700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-48000</v>
+        <v>-46900</v>
       </c>
       <c r="E21" s="3">
-        <v>-50100</v>
+        <v>-49000</v>
       </c>
       <c r="F21" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G21" s="3">
-        <v>12400</v>
+        <v>12100</v>
       </c>
       <c r="H21" s="3">
-        <v>31800</v>
+        <v>31000</v>
       </c>
       <c r="I21" s="3">
-        <v>17400</v>
+        <v>17000</v>
       </c>
       <c r="J21" s="3">
-        <v>38600</v>
+        <v>37700</v>
       </c>
       <c r="K21" s="3">
         <v>41200</v>
@@ -1122,10 +1122,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E22" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-76000</v>
+        <v>-74200</v>
       </c>
       <c r="E23" s="3">
-        <v>-74500</v>
+        <v>-72700</v>
       </c>
       <c r="F23" s="3">
-        <v>-12700</v>
+        <v>-12400</v>
       </c>
       <c r="G23" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="H23" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="I23" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="J23" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="K23" s="3">
         <v>24200</v>
@@ -1194,19 +1194,19 @@
         <v>-300</v>
       </c>
       <c r="F24" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G24" s="3">
         <v>1400</v>
       </c>
       <c r="H24" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I24" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J24" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-76000</v>
+        <v>-74200</v>
       </c>
       <c r="E26" s="3">
-        <v>-74200</v>
+        <v>-72500</v>
       </c>
       <c r="F26" s="3">
-        <v>-15600</v>
+        <v>-15300</v>
       </c>
       <c r="G26" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="H26" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="I26" s="3">
-        <v>-10200</v>
+        <v>-10000</v>
       </c>
       <c r="J26" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="K26" s="3">
         <v>23800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-76000</v>
+        <v>-74200</v>
       </c>
       <c r="E27" s="3">
-        <v>-74200</v>
+        <v>-72500</v>
       </c>
       <c r="F27" s="3">
-        <v>-15600</v>
+        <v>-15300</v>
       </c>
       <c r="G27" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="H27" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="I27" s="3">
-        <v>-10200</v>
+        <v>-10000</v>
       </c>
       <c r="J27" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="K27" s="3">
         <v>23800</v>
@@ -1452,10 +1452,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="E32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>500</v>
@@ -1464,7 +1464,7 @@
         <v>1100</v>
       </c>
       <c r="H32" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="I32" s="3">
         <v>-700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-76000</v>
+        <v>-74200</v>
       </c>
       <c r="E33" s="3">
-        <v>-74200</v>
+        <v>-72500</v>
       </c>
       <c r="F33" s="3">
-        <v>-15600</v>
+        <v>-15300</v>
       </c>
       <c r="G33" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="H33" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="I33" s="3">
-        <v>-10200</v>
+        <v>-10000</v>
       </c>
       <c r="J33" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="K33" s="3">
         <v>23800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-76000</v>
+        <v>-74200</v>
       </c>
       <c r="E35" s="3">
-        <v>-74200</v>
+        <v>-72500</v>
       </c>
       <c r="F35" s="3">
-        <v>-15600</v>
+        <v>-15300</v>
       </c>
       <c r="G35" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="H35" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="I35" s="3">
-        <v>-10200</v>
+        <v>-10000</v>
       </c>
       <c r="J35" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="K35" s="3">
         <v>23800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15000</v>
+        <v>14600</v>
       </c>
       <c r="E41" s="3">
-        <v>83400</v>
+        <v>81400</v>
       </c>
       <c r="F41" s="3">
-        <v>63400</v>
+        <v>61900</v>
       </c>
       <c r="G41" s="3">
-        <v>65200</v>
+        <v>63700</v>
       </c>
       <c r="H41" s="3">
-        <v>174600</v>
+        <v>170500</v>
       </c>
       <c r="I41" s="3">
-        <v>44800</v>
+        <v>43800</v>
       </c>
       <c r="J41" s="3">
-        <v>29500</v>
+        <v>28800</v>
       </c>
       <c r="K41" s="3">
         <v>15900</v>
@@ -1700,10 +1700,10 @@
         <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>65300</v>
+        <v>63800</v>
       </c>
       <c r="J42" s="3">
-        <v>99800</v>
+        <v>97400</v>
       </c>
       <c r="K42" s="3">
         <v>105800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30200</v>
+        <v>29400</v>
       </c>
       <c r="E43" s="3">
-        <v>24300</v>
+        <v>23700</v>
       </c>
       <c r="F43" s="3">
-        <v>26200</v>
+        <v>25600</v>
       </c>
       <c r="G43" s="3">
-        <v>34500</v>
+        <v>33700</v>
       </c>
       <c r="H43" s="3">
-        <v>143600</v>
+        <v>140200</v>
       </c>
       <c r="I43" s="3">
-        <v>33400</v>
+        <v>32600</v>
       </c>
       <c r="J43" s="3">
-        <v>44400</v>
+        <v>43300</v>
       </c>
       <c r="K43" s="3">
         <v>31400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30800</v>
+        <v>30000</v>
       </c>
       <c r="E44" s="3">
-        <v>25500</v>
+        <v>24900</v>
       </c>
       <c r="F44" s="3">
-        <v>22100</v>
+        <v>21600</v>
       </c>
       <c r="G44" s="3">
-        <v>24300</v>
+        <v>23700</v>
       </c>
       <c r="H44" s="3">
-        <v>61000</v>
+        <v>59500</v>
       </c>
       <c r="I44" s="3">
-        <v>33600</v>
+        <v>32800</v>
       </c>
       <c r="J44" s="3">
-        <v>29600</v>
+        <v>28900</v>
       </c>
       <c r="K44" s="3">
         <v>28800</v>
@@ -1784,22 +1784,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="E45" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="F45" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="G45" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="H45" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I45" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J45" s="3">
         <v>2800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>85900</v>
+        <v>83900</v>
       </c>
       <c r="E46" s="3">
-        <v>143500</v>
+        <v>140100</v>
       </c>
       <c r="F46" s="3">
-        <v>117300</v>
+        <v>114500</v>
       </c>
       <c r="G46" s="3">
-        <v>128600</v>
+        <v>125600</v>
       </c>
       <c r="H46" s="3">
-        <v>163400</v>
+        <v>159500</v>
       </c>
       <c r="I46" s="3">
-        <v>180600</v>
+        <v>176300</v>
       </c>
       <c r="J46" s="3">
-        <v>206200</v>
+        <v>201300</v>
       </c>
       <c r="K46" s="3">
         <v>184100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>99600</v>
+        <v>97200</v>
       </c>
       <c r="E48" s="3">
-        <v>114200</v>
+        <v>111500</v>
       </c>
       <c r="F48" s="3">
-        <v>115400</v>
+        <v>112700</v>
       </c>
       <c r="G48" s="3">
-        <v>85800</v>
+        <v>83700</v>
       </c>
       <c r="H48" s="3">
-        <v>120100</v>
+        <v>117200</v>
       </c>
       <c r="I48" s="3">
-        <v>84200</v>
+        <v>82200</v>
       </c>
       <c r="J48" s="3">
-        <v>76900</v>
+        <v>75100</v>
       </c>
       <c r="K48" s="3">
         <v>64200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="E49" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="F49" s="3">
-        <v>13500</v>
+        <v>13200</v>
       </c>
       <c r="G49" s="3">
-        <v>13300</v>
+        <v>13000</v>
       </c>
       <c r="H49" s="3">
-        <v>39600</v>
+        <v>38600</v>
       </c>
       <c r="I49" s="3">
-        <v>36700</v>
+        <v>35900</v>
       </c>
       <c r="J49" s="3">
-        <v>30200</v>
+        <v>29400</v>
       </c>
       <c r="K49" s="3">
         <v>22700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="E52" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="F52" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="G52" s="3">
-        <v>15000</v>
+        <v>14700</v>
       </c>
       <c r="H52" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="I52" s="3">
-        <v>13300</v>
+        <v>13000</v>
       </c>
       <c r="J52" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="K52" s="3">
         <v>11000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>198600</v>
+        <v>193900</v>
       </c>
       <c r="E54" s="3">
-        <v>275800</v>
+        <v>269200</v>
       </c>
       <c r="F54" s="3">
-        <v>253200</v>
+        <v>247200</v>
       </c>
       <c r="G54" s="3">
-        <v>242800</v>
+        <v>237000</v>
       </c>
       <c r="H54" s="3">
-        <v>243200</v>
+        <v>237500</v>
       </c>
       <c r="I54" s="3">
-        <v>314800</v>
+        <v>307300</v>
       </c>
       <c r="J54" s="3">
-        <v>322600</v>
+        <v>315000</v>
       </c>
       <c r="K54" s="3">
         <v>282700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="E57" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="F57" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="G57" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="H57" s="3">
-        <v>62600</v>
+        <v>61100</v>
       </c>
       <c r="I57" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="J57" s="3">
-        <v>12700</v>
+        <v>12400</v>
       </c>
       <c r="K57" s="3">
         <v>7400</v>
@@ -2177,10 +2177,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E58" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="F58" s="3">
         <v>1200</v>
@@ -2189,13 +2189,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I58" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="J58" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="K58" s="3">
         <v>4900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34600</v>
+        <v>33700</v>
       </c>
       <c r="E59" s="3">
-        <v>29900</v>
+        <v>29200</v>
       </c>
       <c r="F59" s="3">
-        <v>33100</v>
+        <v>32300</v>
       </c>
       <c r="G59" s="3">
-        <v>35600</v>
+        <v>34800</v>
       </c>
       <c r="H59" s="3">
-        <v>84700</v>
+        <v>82700</v>
       </c>
       <c r="I59" s="3">
-        <v>46000</v>
+        <v>44900</v>
       </c>
       <c r="J59" s="3">
-        <v>30700</v>
+        <v>30000</v>
       </c>
       <c r="K59" s="3">
         <v>33500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49800</v>
+        <v>48600</v>
       </c>
       <c r="E60" s="3">
-        <v>51300</v>
+        <v>50100</v>
       </c>
       <c r="F60" s="3">
-        <v>43300</v>
+        <v>42300</v>
       </c>
       <c r="G60" s="3">
-        <v>47600</v>
+        <v>46500</v>
       </c>
       <c r="H60" s="3">
-        <v>66800</v>
+        <v>65200</v>
       </c>
       <c r="I60" s="3">
-        <v>70700</v>
+        <v>69000</v>
       </c>
       <c r="J60" s="3">
-        <v>50500</v>
+        <v>49300</v>
       </c>
       <c r="K60" s="3">
         <v>45800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85900</v>
+        <v>83900</v>
       </c>
       <c r="E61" s="3">
-        <v>93100</v>
+        <v>90900</v>
       </c>
       <c r="F61" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I61" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="J61" s="3">
-        <v>18900</v>
+        <v>18500</v>
       </c>
       <c r="K61" s="3">
         <v>7300</v>
@@ -2309,16 +2309,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38100</v>
+        <v>37200</v>
       </c>
       <c r="E62" s="3">
-        <v>37700</v>
+        <v>36800</v>
       </c>
       <c r="F62" s="3">
-        <v>41800</v>
+        <v>40800</v>
       </c>
       <c r="G62" s="3">
-        <v>22300</v>
+        <v>21800</v>
       </c>
       <c r="H62" s="3">
         <v>1300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>173800</v>
+        <v>169600</v>
       </c>
       <c r="E66" s="3">
-        <v>182100</v>
+        <v>177800</v>
       </c>
       <c r="F66" s="3">
-        <v>92100</v>
+        <v>89900</v>
       </c>
       <c r="G66" s="3">
-        <v>69900</v>
+        <v>68300</v>
       </c>
       <c r="H66" s="3">
-        <v>72400</v>
+        <v>70700</v>
       </c>
       <c r="I66" s="3">
-        <v>82200</v>
+        <v>80200</v>
       </c>
       <c r="J66" s="3">
-        <v>71000</v>
+        <v>69300</v>
       </c>
       <c r="K66" s="3">
         <v>55200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-229900</v>
+        <v>-224500</v>
       </c>
       <c r="E72" s="3">
-        <v>-153900</v>
+        <v>-150300</v>
       </c>
       <c r="F72" s="3">
-        <v>-79200</v>
+        <v>-77300</v>
       </c>
       <c r="G72" s="3">
-        <v>-63600</v>
+        <v>-62100</v>
       </c>
       <c r="H72" s="3">
-        <v>-57500</v>
+        <v>-56100</v>
       </c>
       <c r="I72" s="3">
-        <v>-63000</v>
+        <v>-61500</v>
       </c>
       <c r="J72" s="3">
-        <v>-44300</v>
+        <v>-43200</v>
       </c>
       <c r="K72" s="3">
         <v>-52300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24900</v>
+        <v>24300</v>
       </c>
       <c r="E76" s="3">
-        <v>93700</v>
+        <v>91500</v>
       </c>
       <c r="F76" s="3">
-        <v>161100</v>
+        <v>157300</v>
       </c>
       <c r="G76" s="3">
-        <v>172800</v>
+        <v>168700</v>
       </c>
       <c r="H76" s="3">
-        <v>170800</v>
+        <v>166700</v>
       </c>
       <c r="I76" s="3">
-        <v>232600</v>
+        <v>227100</v>
       </c>
       <c r="J76" s="3">
-        <v>251600</v>
+        <v>245700</v>
       </c>
       <c r="K76" s="3">
         <v>227500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-76000</v>
+        <v>-74200</v>
       </c>
       <c r="E81" s="3">
-        <v>-74200</v>
+        <v>-72500</v>
       </c>
       <c r="F81" s="3">
-        <v>-15600</v>
+        <v>-15300</v>
       </c>
       <c r="G81" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="H81" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="I81" s="3">
-        <v>-10200</v>
+        <v>-10000</v>
       </c>
       <c r="J81" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="K81" s="3">
         <v>23800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>15800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J83" s="3">
         <v>20900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>20100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>16200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>16900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>18900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>24800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>21400</v>
       </c>
       <c r="K83" s="3">
         <v>16700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-61200</v>
+        <v>-59800</v>
       </c>
       <c r="E89" s="3">
-        <v>-43200</v>
+        <v>-42100</v>
       </c>
       <c r="F89" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="G89" s="3">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="H89" s="3">
-        <v>13900</v>
+        <v>13600</v>
       </c>
       <c r="I89" s="3">
-        <v>40200</v>
+        <v>39300</v>
       </c>
       <c r="J89" s="3">
-        <v>27900</v>
+        <v>27200</v>
       </c>
       <c r="K89" s="3">
         <v>40400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="E91" s="3">
-        <v>-17000</v>
+        <v>-16600</v>
       </c>
       <c r="F91" s="3">
-        <v>-22900</v>
+        <v>-22400</v>
       </c>
       <c r="G91" s="3">
-        <v>-17600</v>
+        <v>-17100</v>
       </c>
       <c r="H91" s="3">
-        <v>-11900</v>
+        <v>-11700</v>
       </c>
       <c r="I91" s="3">
-        <v>-25700</v>
+        <v>-25100</v>
       </c>
       <c r="J91" s="3">
-        <v>-26500</v>
+        <v>-25900</v>
       </c>
       <c r="K91" s="3">
         <v>-24400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="E94" s="3">
-        <v>-19500</v>
+        <v>-19100</v>
       </c>
       <c r="F94" s="3">
-        <v>-26800</v>
+        <v>-26200</v>
       </c>
       <c r="G94" s="3">
-        <v>-21000</v>
+        <v>-20500</v>
       </c>
       <c r="H94" s="3">
-        <v>-18600</v>
+        <v>-18200</v>
       </c>
       <c r="I94" s="3">
-        <v>-40200</v>
+        <v>-39300</v>
       </c>
       <c r="J94" s="3">
-        <v>-38500</v>
+        <v>-37600</v>
       </c>
       <c r="K94" s="3">
         <v>-34300</v>
@@ -3433,22 +3433,22 @@
         <v>-1200</v>
       </c>
       <c r="E100" s="3">
-        <v>86400</v>
+        <v>84300</v>
       </c>
       <c r="F100" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="G100" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="H100" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="I100" s="3">
-        <v>-17100</v>
+        <v>-16700</v>
       </c>
       <c r="J100" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="K100" s="3">
         <v>59400</v>
@@ -3475,10 +3475,10 @@
         <v>1500</v>
       </c>
       <c r="H101" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="I101" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J101" s="3">
         <v>-600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-68000</v>
+        <v>-66400</v>
       </c>
       <c r="E102" s="3">
-        <v>24300</v>
+        <v>23700</v>
       </c>
       <c r="F102" s="3">
         <v>-1800</v>
       </c>
       <c r="G102" s="3">
-        <v>-8600</v>
+        <v>-8400</v>
       </c>
       <c r="H102" s="3">
-        <v>-13900</v>
+        <v>-13600</v>
       </c>
       <c r="I102" s="3">
-        <v>-19200</v>
+        <v>-18800</v>
       </c>
       <c r="J102" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K102" s="3">
         <v>68700</v>

--- a/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>232400</v>
+        <v>232500</v>
       </c>
       <c r="E8" s="3">
-        <v>199300</v>
+        <v>199400</v>
       </c>
       <c r="F8" s="3">
-        <v>231500</v>
+        <v>231700</v>
       </c>
       <c r="G8" s="3">
-        <v>334400</v>
+        <v>334600</v>
       </c>
       <c r="H8" s="3">
-        <v>370800</v>
+        <v>371000</v>
       </c>
       <c r="I8" s="3">
-        <v>396100</v>
+        <v>396300</v>
       </c>
       <c r="J8" s="3">
-        <v>360500</v>
+        <v>360700</v>
       </c>
       <c r="K8" s="3">
         <v>315100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>194400</v>
+        <v>194500</v>
       </c>
       <c r="E9" s="3">
-        <v>167600</v>
+        <v>167700</v>
       </c>
       <c r="F9" s="3">
-        <v>159600</v>
+        <v>159700</v>
       </c>
       <c r="G9" s="3">
-        <v>217800</v>
+        <v>217900</v>
       </c>
       <c r="H9" s="3">
-        <v>505600</v>
+        <v>505900</v>
       </c>
       <c r="I9" s="3">
-        <v>230700</v>
+        <v>230800</v>
       </c>
       <c r="J9" s="3">
-        <v>203500</v>
+        <v>203600</v>
       </c>
       <c r="K9" s="3">
         <v>180000</v>
@@ -789,16 +789,16 @@
         <v>31700</v>
       </c>
       <c r="F10" s="3">
-        <v>71900</v>
+        <v>72000</v>
       </c>
       <c r="G10" s="3">
         <v>116700</v>
       </c>
       <c r="H10" s="3">
-        <v>-134800</v>
+        <v>-134900</v>
       </c>
       <c r="I10" s="3">
-        <v>165400</v>
+        <v>165500</v>
       </c>
       <c r="J10" s="3">
         <v>157000</v>
@@ -837,7 +837,7 @@
         <v>11100</v>
       </c>
       <c r="F12" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="G12" s="3">
         <v>10600</v>
@@ -909,7 +909,7 @@
         <v>6200</v>
       </c>
       <c r="H14" s="3">
-        <v>48600</v>
+        <v>48700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>301600</v>
+        <v>301800</v>
       </c>
       <c r="E17" s="3">
-        <v>267400</v>
+        <v>267500</v>
       </c>
       <c r="F17" s="3">
-        <v>243100</v>
+        <v>243200</v>
       </c>
       <c r="G17" s="3">
-        <v>337800</v>
+        <v>337900</v>
       </c>
       <c r="H17" s="3">
-        <v>363100</v>
+        <v>363300</v>
       </c>
       <c r="I17" s="3">
-        <v>404000</v>
+        <v>404200</v>
       </c>
       <c r="J17" s="3">
-        <v>343400</v>
+        <v>343500</v>
       </c>
       <c r="K17" s="3">
         <v>293500</v>
@@ -1008,7 +1008,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-69200</v>
+        <v>-69300</v>
       </c>
       <c r="E18" s="3">
         <v>-68200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-46900</v>
+        <v>-46800</v>
       </c>
       <c r="E21" s="3">
-        <v>-49000</v>
+        <v>-48900</v>
       </c>
       <c r="F21" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G21" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="H21" s="3">
-        <v>31000</v>
+        <v>31100</v>
       </c>
       <c r="I21" s="3">
         <v>17000</v>
       </c>
       <c r="J21" s="3">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="K21" s="3">
         <v>41200</v>
@@ -1158,7 +1158,7 @@
         <v>-74200</v>
       </c>
       <c r="E23" s="3">
-        <v>-72700</v>
+        <v>-72800</v>
       </c>
       <c r="F23" s="3">
         <v>-12400</v>
@@ -1655,7 +1655,7 @@
         <v>14600</v>
       </c>
       <c r="E41" s="3">
-        <v>81400</v>
+        <v>81500</v>
       </c>
       <c r="F41" s="3">
         <v>61900</v>
@@ -1664,13 +1664,13 @@
         <v>63700</v>
       </c>
       <c r="H41" s="3">
-        <v>170500</v>
+        <v>170600</v>
       </c>
       <c r="I41" s="3">
         <v>43800</v>
       </c>
       <c r="J41" s="3">
-        <v>28800</v>
+        <v>28900</v>
       </c>
       <c r="K41" s="3">
         <v>15900</v>
@@ -1703,7 +1703,7 @@
         <v>63800</v>
       </c>
       <c r="J42" s="3">
-        <v>97400</v>
+        <v>97500</v>
       </c>
       <c r="K42" s="3">
         <v>105800</v>
@@ -1718,7 +1718,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>29400</v>
+        <v>29500</v>
       </c>
       <c r="E43" s="3">
         <v>23700</v>
@@ -1730,7 +1730,7 @@
         <v>33700</v>
       </c>
       <c r="H43" s="3">
-        <v>140200</v>
+        <v>140300</v>
       </c>
       <c r="I43" s="3">
         <v>32600</v>
@@ -1751,7 +1751,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="E44" s="3">
         <v>24900</v>
@@ -1763,7 +1763,7 @@
         <v>23700</v>
       </c>
       <c r="H44" s="3">
-        <v>59500</v>
+        <v>59600</v>
       </c>
       <c r="I44" s="3">
         <v>32800</v>
@@ -1820,22 +1820,22 @@
         <v>83900</v>
       </c>
       <c r="E46" s="3">
-        <v>140100</v>
+        <v>140200</v>
       </c>
       <c r="F46" s="3">
-        <v>114500</v>
+        <v>114600</v>
       </c>
       <c r="G46" s="3">
         <v>125600</v>
       </c>
       <c r="H46" s="3">
-        <v>159500</v>
+        <v>159600</v>
       </c>
       <c r="I46" s="3">
-        <v>176300</v>
+        <v>176400</v>
       </c>
       <c r="J46" s="3">
-        <v>201300</v>
+        <v>201400</v>
       </c>
       <c r="K46" s="3">
         <v>184100</v>
@@ -1883,19 +1883,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>97200</v>
+        <v>97300</v>
       </c>
       <c r="E48" s="3">
         <v>111500</v>
       </c>
       <c r="F48" s="3">
-        <v>112700</v>
+        <v>112800</v>
       </c>
       <c r="G48" s="3">
-        <v>83700</v>
+        <v>83800</v>
       </c>
       <c r="H48" s="3">
-        <v>117200</v>
+        <v>117300</v>
       </c>
       <c r="I48" s="3">
         <v>82200</v>
@@ -1916,7 +1916,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E49" s="3">
         <v>10000</v>
@@ -1934,7 +1934,7 @@
         <v>35900</v>
       </c>
       <c r="J49" s="3">
-        <v>29400</v>
+        <v>29500</v>
       </c>
       <c r="K49" s="3">
         <v>22700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>193900</v>
+        <v>194000</v>
       </c>
       <c r="E54" s="3">
-        <v>269200</v>
+        <v>269400</v>
       </c>
       <c r="F54" s="3">
-        <v>247200</v>
+        <v>247400</v>
       </c>
       <c r="G54" s="3">
-        <v>237000</v>
+        <v>237100</v>
       </c>
       <c r="H54" s="3">
-        <v>237500</v>
+        <v>237600</v>
       </c>
       <c r="I54" s="3">
-        <v>307300</v>
+        <v>307500</v>
       </c>
       <c r="J54" s="3">
-        <v>315000</v>
+        <v>315200</v>
       </c>
       <c r="K54" s="3">
         <v>282700</v>
@@ -2156,13 +2156,13 @@
         <v>11700</v>
       </c>
       <c r="H57" s="3">
-        <v>61100</v>
+        <v>61200</v>
       </c>
       <c r="I57" s="3">
         <v>16400</v>
       </c>
       <c r="J57" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="K57" s="3">
         <v>7400</v>
@@ -2210,7 +2210,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33700</v>
+        <v>33800</v>
       </c>
       <c r="E59" s="3">
         <v>29200</v>
@@ -2258,7 +2258,7 @@
         <v>65200</v>
       </c>
       <c r="I60" s="3">
-        <v>69000</v>
+        <v>69100</v>
       </c>
       <c r="J60" s="3">
         <v>49300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>169600</v>
+        <v>169700</v>
       </c>
       <c r="E66" s="3">
-        <v>177800</v>
+        <v>177900</v>
       </c>
       <c r="F66" s="3">
-        <v>89900</v>
+        <v>90000</v>
       </c>
       <c r="G66" s="3">
         <v>68300</v>
       </c>
       <c r="H66" s="3">
-        <v>70700</v>
+        <v>70800</v>
       </c>
       <c r="I66" s="3">
-        <v>80200</v>
+        <v>80300</v>
       </c>
       <c r="J66" s="3">
-        <v>69300</v>
+        <v>69400</v>
       </c>
       <c r="K66" s="3">
         <v>55200</v>
@@ -2621,7 +2621,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-224500</v>
+        <v>-224600</v>
       </c>
       <c r="E72" s="3">
         <v>-150300</v>
@@ -2636,7 +2636,7 @@
         <v>-56100</v>
       </c>
       <c r="I72" s="3">
-        <v>-61500</v>
+        <v>-61600</v>
       </c>
       <c r="J72" s="3">
         <v>-43200</v>
@@ -2759,19 +2759,19 @@
         <v>91500</v>
       </c>
       <c r="F76" s="3">
-        <v>157300</v>
+        <v>157400</v>
       </c>
       <c r="G76" s="3">
-        <v>168700</v>
+        <v>168800</v>
       </c>
       <c r="H76" s="3">
-        <v>166700</v>
+        <v>166800</v>
       </c>
       <c r="I76" s="3">
-        <v>227100</v>
+        <v>227200</v>
       </c>
       <c r="J76" s="3">
-        <v>245700</v>
+        <v>245800</v>
       </c>
       <c r="K76" s="3">
         <v>227500</v>
@@ -3106,7 +3106,7 @@
         <v>-59800</v>
       </c>
       <c r="E89" s="3">
-        <v>-42100</v>
+        <v>-42200</v>
       </c>
       <c r="F89" s="3">
         <v>16900</v>
@@ -3160,7 +3160,7 @@
         <v>-22400</v>
       </c>
       <c r="G91" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="H91" s="3">
         <v>-11700</v>
@@ -3433,7 +3433,7 @@
         <v>-1200</v>
       </c>
       <c r="E100" s="3">
-        <v>84300</v>
+        <v>84400</v>
       </c>
       <c r="F100" s="3">
         <v>7700</v>

--- a/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DRT_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>232500</v>
+        <v>236800</v>
       </c>
       <c r="E8" s="3">
-        <v>199400</v>
+        <v>203000</v>
       </c>
       <c r="F8" s="3">
-        <v>231700</v>
+        <v>235900</v>
       </c>
       <c r="G8" s="3">
-        <v>334600</v>
+        <v>340800</v>
       </c>
       <c r="H8" s="3">
-        <v>371000</v>
+        <v>377800</v>
       </c>
       <c r="I8" s="3">
-        <v>396300</v>
+        <v>403600</v>
       </c>
       <c r="J8" s="3">
-        <v>360700</v>
+        <v>367300</v>
       </c>
       <c r="K8" s="3">
         <v>315100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>194500</v>
+        <v>198100</v>
       </c>
       <c r="E9" s="3">
-        <v>167700</v>
+        <v>170700</v>
       </c>
       <c r="F9" s="3">
-        <v>159700</v>
+        <v>162600</v>
       </c>
       <c r="G9" s="3">
-        <v>217900</v>
+        <v>221900</v>
       </c>
       <c r="H9" s="3">
-        <v>505900</v>
+        <v>515200</v>
       </c>
       <c r="I9" s="3">
-        <v>230800</v>
+        <v>235000</v>
       </c>
       <c r="J9" s="3">
-        <v>203600</v>
+        <v>207400</v>
       </c>
       <c r="K9" s="3">
         <v>180000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38000</v>
+        <v>38700</v>
       </c>
       <c r="E10" s="3">
-        <v>31700</v>
+        <v>32300</v>
       </c>
       <c r="F10" s="3">
-        <v>72000</v>
+        <v>73300</v>
       </c>
       <c r="G10" s="3">
-        <v>116700</v>
+        <v>118900</v>
       </c>
       <c r="H10" s="3">
-        <v>-134900</v>
+        <v>-137300</v>
       </c>
       <c r="I10" s="3">
-        <v>165500</v>
+        <v>168600</v>
       </c>
       <c r="J10" s="3">
-        <v>157000</v>
+        <v>159900</v>
       </c>
       <c r="K10" s="3">
         <v>135100</v>
@@ -831,19 +831,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="E12" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="F12" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="G12" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="H12" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="E14" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="F14" s="3">
-        <v>-17200</v>
+        <v>-17500</v>
       </c>
       <c r="G14" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="H14" s="3">
-        <v>48700</v>
+        <v>49600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>301800</v>
+        <v>307300</v>
       </c>
       <c r="E17" s="3">
-        <v>267500</v>
+        <v>272500</v>
       </c>
       <c r="F17" s="3">
-        <v>243200</v>
+        <v>247700</v>
       </c>
       <c r="G17" s="3">
-        <v>337900</v>
+        <v>344100</v>
       </c>
       <c r="H17" s="3">
-        <v>363300</v>
+        <v>370000</v>
       </c>
       <c r="I17" s="3">
-        <v>404200</v>
+        <v>411600</v>
       </c>
       <c r="J17" s="3">
-        <v>343500</v>
+        <v>349900</v>
       </c>
       <c r="K17" s="3">
         <v>293500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-69300</v>
+        <v>-70500</v>
       </c>
       <c r="E18" s="3">
-        <v>-68200</v>
+        <v>-69400</v>
       </c>
       <c r="F18" s="3">
-        <v>-11500</v>
+        <v>-11800</v>
       </c>
       <c r="G18" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="H18" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="I18" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="J18" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="K18" s="3">
         <v>21600</v>
@@ -1056,10 +1056,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F20" s="3">
         <v>-500</v>
@@ -1068,7 +1068,7 @@
         <v>-1100</v>
       </c>
       <c r="H20" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I20" s="3">
         <v>700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-46800</v>
+        <v>-47800</v>
       </c>
       <c r="E21" s="3">
-        <v>-48900</v>
+        <v>-49900</v>
       </c>
       <c r="F21" s="3">
         <v>3800</v>
       </c>
       <c r="G21" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="H21" s="3">
-        <v>31100</v>
+        <v>31600</v>
       </c>
       <c r="I21" s="3">
-        <v>17000</v>
+        <v>17200</v>
       </c>
       <c r="J21" s="3">
-        <v>37800</v>
+        <v>38300</v>
       </c>
       <c r="K21" s="3">
         <v>41200</v>
@@ -1122,10 +1122,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E22" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-74200</v>
+        <v>-75600</v>
       </c>
       <c r="E23" s="3">
-        <v>-72800</v>
+        <v>-74100</v>
       </c>
       <c r="F23" s="3">
-        <v>-12400</v>
+        <v>-12600</v>
       </c>
       <c r="G23" s="3">
         <v>-4600</v>
       </c>
       <c r="H23" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="I23" s="3">
-        <v>-8000</v>
+        <v>-8100</v>
       </c>
       <c r="J23" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="K23" s="3">
         <v>24200</v>
@@ -1194,19 +1194,19 @@
         <v>-300</v>
       </c>
       <c r="F24" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G24" s="3">
         <v>1400</v>
       </c>
       <c r="H24" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I24" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J24" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-74200</v>
+        <v>-75600</v>
       </c>
       <c r="E26" s="3">
-        <v>-72500</v>
+        <v>-73800</v>
       </c>
       <c r="F26" s="3">
-        <v>-15300</v>
+        <v>-15500</v>
       </c>
       <c r="G26" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H26" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I26" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="J26" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="K26" s="3">
         <v>23800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-74200</v>
+        <v>-75600</v>
       </c>
       <c r="E27" s="3">
-        <v>-72500</v>
+        <v>-73800</v>
       </c>
       <c r="F27" s="3">
-        <v>-15300</v>
+        <v>-15500</v>
       </c>
       <c r="G27" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H27" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I27" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="J27" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="K27" s="3">
         <v>23800</v>
@@ -1452,10 +1452,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="E32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F32" s="3">
         <v>500</v>
@@ -1464,7 +1464,7 @@
         <v>1100</v>
       </c>
       <c r="H32" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="I32" s="3">
         <v>-700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-74200</v>
+        <v>-75600</v>
       </c>
       <c r="E33" s="3">
-        <v>-72500</v>
+        <v>-73800</v>
       </c>
       <c r="F33" s="3">
-        <v>-15300</v>
+        <v>-15500</v>
       </c>
       <c r="G33" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H33" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I33" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="J33" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="K33" s="3">
         <v>23800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-74200</v>
+        <v>-75600</v>
       </c>
       <c r="E35" s="3">
-        <v>-72500</v>
+        <v>-73800</v>
       </c>
       <c r="F35" s="3">
-        <v>-15300</v>
+        <v>-15500</v>
       </c>
       <c r="G35" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H35" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I35" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="J35" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="K35" s="3">
         <v>23800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="E41" s="3">
-        <v>81500</v>
+        <v>83000</v>
       </c>
       <c r="F41" s="3">
-        <v>61900</v>
+        <v>63100</v>
       </c>
       <c r="G41" s="3">
-        <v>63700</v>
+        <v>64900</v>
       </c>
       <c r="H41" s="3">
-        <v>170600</v>
+        <v>173700</v>
       </c>
       <c r="I41" s="3">
-        <v>43800</v>
+        <v>44600</v>
       </c>
       <c r="J41" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="K41" s="3">
         <v>15900</v>
@@ -1700,10 +1700,10 @@
         <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>63800</v>
+        <v>65000</v>
       </c>
       <c r="J42" s="3">
-        <v>97500</v>
+        <v>99300</v>
       </c>
       <c r="K42" s="3">
         <v>105800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>29500</v>
+        <v>30000</v>
       </c>
       <c r="E43" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="F43" s="3">
-        <v>25600</v>
+        <v>26100</v>
       </c>
       <c r="G43" s="3">
-        <v>33700</v>
+        <v>34300</v>
       </c>
       <c r="H43" s="3">
-        <v>140300</v>
+        <v>142800</v>
       </c>
       <c r="I43" s="3">
-        <v>32600</v>
+        <v>33200</v>
       </c>
       <c r="J43" s="3">
-        <v>43300</v>
+        <v>44100</v>
       </c>
       <c r="K43" s="3">
         <v>31400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30100</v>
+        <v>30600</v>
       </c>
       <c r="E44" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="F44" s="3">
-        <v>21600</v>
+        <v>22000</v>
       </c>
       <c r="G44" s="3">
-        <v>23700</v>
+        <v>24200</v>
       </c>
       <c r="H44" s="3">
-        <v>59600</v>
+        <v>60600</v>
       </c>
       <c r="I44" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="J44" s="3">
-        <v>28900</v>
+        <v>29500</v>
       </c>
       <c r="K44" s="3">
         <v>28800</v>
@@ -1784,22 +1784,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="E45" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="F45" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G45" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H45" s="3">
         <v>3000</v>
       </c>
       <c r="I45" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J45" s="3">
         <v>2800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>83900</v>
+        <v>85500</v>
       </c>
       <c r="E46" s="3">
-        <v>140200</v>
+        <v>142800</v>
       </c>
       <c r="F46" s="3">
-        <v>114600</v>
+        <v>116700</v>
       </c>
       <c r="G46" s="3">
-        <v>125600</v>
+        <v>128000</v>
       </c>
       <c r="H46" s="3">
-        <v>159600</v>
+        <v>162500</v>
       </c>
       <c r="I46" s="3">
-        <v>176400</v>
+        <v>179700</v>
       </c>
       <c r="J46" s="3">
-        <v>201400</v>
+        <v>205100</v>
       </c>
       <c r="K46" s="3">
         <v>184100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>97300</v>
+        <v>99100</v>
       </c>
       <c r="E48" s="3">
-        <v>111500</v>
+        <v>113600</v>
       </c>
       <c r="F48" s="3">
-        <v>112800</v>
+        <v>114800</v>
       </c>
       <c r="G48" s="3">
-        <v>83800</v>
+        <v>85300</v>
       </c>
       <c r="H48" s="3">
-        <v>117300</v>
+        <v>119400</v>
       </c>
       <c r="I48" s="3">
-        <v>82200</v>
+        <v>83700</v>
       </c>
       <c r="J48" s="3">
-        <v>75100</v>
+        <v>76500</v>
       </c>
       <c r="K48" s="3">
         <v>64200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E49" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="F49" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="G49" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="H49" s="3">
-        <v>38600</v>
+        <v>39400</v>
       </c>
       <c r="I49" s="3">
-        <v>35900</v>
+        <v>36500</v>
       </c>
       <c r="J49" s="3">
-        <v>29500</v>
+        <v>30000</v>
       </c>
       <c r="K49" s="3">
         <v>22700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F52" s="3">
         <v>6900</v>
       </c>
-      <c r="E52" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>6800</v>
-      </c>
       <c r="G52" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="H52" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="I52" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="J52" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="K52" s="3">
         <v>11000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>194000</v>
+        <v>197600</v>
       </c>
       <c r="E54" s="3">
-        <v>269400</v>
+        <v>274300</v>
       </c>
       <c r="F54" s="3">
-        <v>247400</v>
+        <v>251900</v>
       </c>
       <c r="G54" s="3">
-        <v>237100</v>
+        <v>241500</v>
       </c>
       <c r="H54" s="3">
-        <v>237600</v>
+        <v>242000</v>
       </c>
       <c r="I54" s="3">
-        <v>307500</v>
+        <v>313100</v>
       </c>
       <c r="J54" s="3">
-        <v>315200</v>
+        <v>320900</v>
       </c>
       <c r="K54" s="3">
         <v>282700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="E57" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G57" s="3">
         <v>11900</v>
       </c>
-      <c r="F57" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>11700</v>
-      </c>
       <c r="H57" s="3">
-        <v>61200</v>
+        <v>62300</v>
       </c>
       <c r="I57" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="J57" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="K57" s="3">
         <v>7400</v>
@@ -2180,7 +2180,7 @@
         <v>4500</v>
       </c>
       <c r="E58" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F58" s="3">
         <v>1200</v>
@@ -2192,10 +2192,10 @@
         <v>4800</v>
       </c>
       <c r="I58" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="J58" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="K58" s="3">
         <v>4900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33800</v>
+        <v>34400</v>
       </c>
       <c r="E59" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="F59" s="3">
-        <v>32300</v>
+        <v>32900</v>
       </c>
       <c r="G59" s="3">
-        <v>34800</v>
+        <v>35500</v>
       </c>
       <c r="H59" s="3">
-        <v>82700</v>
+        <v>84300</v>
       </c>
       <c r="I59" s="3">
-        <v>44900</v>
+        <v>45800</v>
       </c>
       <c r="J59" s="3">
-        <v>30000</v>
+        <v>30500</v>
       </c>
       <c r="K59" s="3">
         <v>33500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>48600</v>
+        <v>49500</v>
       </c>
       <c r="E60" s="3">
-        <v>50100</v>
+        <v>51000</v>
       </c>
       <c r="F60" s="3">
-        <v>42300</v>
+        <v>43100</v>
       </c>
       <c r="G60" s="3">
-        <v>46500</v>
+        <v>47400</v>
       </c>
       <c r="H60" s="3">
-        <v>65200</v>
+        <v>66400</v>
       </c>
       <c r="I60" s="3">
-        <v>69100</v>
+        <v>70300</v>
       </c>
       <c r="J60" s="3">
-        <v>49300</v>
+        <v>50200</v>
       </c>
       <c r="K60" s="3">
         <v>45800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>83900</v>
+        <v>85500</v>
       </c>
       <c r="E61" s="3">
-        <v>90900</v>
+        <v>92600</v>
       </c>
       <c r="F61" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I61" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="J61" s="3">
-        <v>18500</v>
+        <v>18800</v>
       </c>
       <c r="K61" s="3">
         <v>7300</v>
@@ -2309,16 +2309,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>37200</v>
+        <v>37900</v>
       </c>
       <c r="E62" s="3">
-        <v>36800</v>
+        <v>37500</v>
       </c>
       <c r="F62" s="3">
-        <v>40800</v>
+        <v>41500</v>
       </c>
       <c r="G62" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="H62" s="3">
         <v>1300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>169700</v>
+        <v>172800</v>
       </c>
       <c r="E66" s="3">
-        <v>177900</v>
+        <v>181100</v>
       </c>
       <c r="F66" s="3">
-        <v>90000</v>
+        <v>91600</v>
       </c>
       <c r="G66" s="3">
-        <v>68300</v>
+        <v>69600</v>
       </c>
       <c r="H66" s="3">
-        <v>70800</v>
+        <v>72100</v>
       </c>
       <c r="I66" s="3">
-        <v>80300</v>
+        <v>81800</v>
       </c>
       <c r="J66" s="3">
-        <v>69400</v>
+        <v>70600</v>
       </c>
       <c r="K66" s="3">
         <v>55200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-224600</v>
+        <v>-228700</v>
       </c>
       <c r="E72" s="3">
-        <v>-150300</v>
+        <v>-153100</v>
       </c>
       <c r="F72" s="3">
-        <v>-77300</v>
+        <v>-78800</v>
       </c>
       <c r="G72" s="3">
-        <v>-62100</v>
+        <v>-63200</v>
       </c>
       <c r="H72" s="3">
-        <v>-56100</v>
+        <v>-57200</v>
       </c>
       <c r="I72" s="3">
-        <v>-61600</v>
+        <v>-62700</v>
       </c>
       <c r="J72" s="3">
-        <v>-43200</v>
+        <v>-44000</v>
       </c>
       <c r="K72" s="3">
         <v>-52300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24300</v>
+        <v>24700</v>
       </c>
       <c r="E76" s="3">
-        <v>91500</v>
+        <v>93200</v>
       </c>
       <c r="F76" s="3">
-        <v>157400</v>
+        <v>160300</v>
       </c>
       <c r="G76" s="3">
-        <v>168800</v>
+        <v>171900</v>
       </c>
       <c r="H76" s="3">
-        <v>166800</v>
+        <v>169900</v>
       </c>
       <c r="I76" s="3">
-        <v>227200</v>
+        <v>231400</v>
       </c>
       <c r="J76" s="3">
-        <v>245800</v>
+        <v>250300</v>
       </c>
       <c r="K76" s="3">
         <v>227500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-74200</v>
+        <v>-75600</v>
       </c>
       <c r="E81" s="3">
-        <v>-72500</v>
+        <v>-73800</v>
       </c>
       <c r="F81" s="3">
-        <v>-15300</v>
+        <v>-15500</v>
       </c>
       <c r="G81" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H81" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I81" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="J81" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="K81" s="3">
         <v>23800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20400</v>
+        <v>20800</v>
       </c>
       <c r="E83" s="3">
-        <v>19600</v>
+        <v>20000</v>
       </c>
       <c r="F83" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="G83" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="H83" s="3">
-        <v>18500</v>
+        <v>18800</v>
       </c>
       <c r="I83" s="3">
-        <v>24200</v>
+        <v>24600</v>
       </c>
       <c r="J83" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="K83" s="3">
         <v>16700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-59800</v>
+        <v>-60900</v>
       </c>
       <c r="E89" s="3">
-        <v>-42200</v>
+        <v>-42900</v>
       </c>
       <c r="F89" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="G89" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="H89" s="3">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="I89" s="3">
-        <v>39300</v>
+        <v>40000</v>
       </c>
       <c r="J89" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="K89" s="3">
         <v>40400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="E91" s="3">
-        <v>-16600</v>
+        <v>-16900</v>
       </c>
       <c r="F91" s="3">
-        <v>-22400</v>
+        <v>-22800</v>
       </c>
       <c r="G91" s="3">
-        <v>-17200</v>
+        <v>-17500</v>
       </c>
       <c r="H91" s="3">
-        <v>-11700</v>
+        <v>-11900</v>
       </c>
       <c r="I91" s="3">
-        <v>-25100</v>
+        <v>-25600</v>
       </c>
       <c r="J91" s="3">
-        <v>-25900</v>
+        <v>-26300</v>
       </c>
       <c r="K91" s="3">
         <v>-24400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="E94" s="3">
-        <v>-19100</v>
+        <v>-19400</v>
       </c>
       <c r="F94" s="3">
-        <v>-26200</v>
+        <v>-26700</v>
       </c>
       <c r="G94" s="3">
-        <v>-20500</v>
+        <v>-20900</v>
       </c>
       <c r="H94" s="3">
-        <v>-18200</v>
+        <v>-18500</v>
       </c>
       <c r="I94" s="3">
-        <v>-39300</v>
+        <v>-40000</v>
       </c>
       <c r="J94" s="3">
-        <v>-37600</v>
+        <v>-38300</v>
       </c>
       <c r="K94" s="3">
         <v>-34300</v>
@@ -3433,22 +3433,22 @@
         <v>-1200</v>
       </c>
       <c r="E100" s="3">
-        <v>84400</v>
+        <v>85900</v>
       </c>
       <c r="F100" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G100" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="H100" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I100" s="3">
-        <v>-16700</v>
+        <v>-17000</v>
       </c>
       <c r="J100" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="K100" s="3">
         <v>59400</v>
@@ -3475,10 +3475,10 @@
         <v>1500</v>
       </c>
       <c r="H101" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="I101" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J101" s="3">
         <v>-600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-66400</v>
+        <v>-67600</v>
       </c>
       <c r="E102" s="3">
-        <v>23700</v>
+        <v>24200</v>
       </c>
       <c r="F102" s="3">
         <v>-1800</v>
       </c>
       <c r="G102" s="3">
-        <v>-8400</v>
+        <v>-8600</v>
       </c>
       <c r="H102" s="3">
-        <v>-13600</v>
+        <v>-13900</v>
       </c>
       <c r="I102" s="3">
-        <v>-18800</v>
+        <v>-19100</v>
       </c>
       <c r="J102" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K102" s="3">
         <v>68700</v>
